--- a/Analysis/2kr_analysis/boss_arrival_time_20-30/throughput/easy_game_mode/2kr_easy_game_mode_minion_throughput.xlsx
+++ b/Analysis/2kr_analysis/boss_arrival_time_20-30/throughput/easy_game_mode/2kr_easy_game_mode_minion_throughput.xlsx
@@ -250,12 +250,6 @@
     <t xml:space="preserve">Student’s T quantile </t>
   </si>
   <si>
-    <t xml:space="preserve">Predicted response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residuals</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -298,6 +292,12 @@
   </si>
   <si>
     <t xml:space="preserve">Residuals (unsorted)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predicted response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residuals</t>
   </si>
 </sst>
 </file>
@@ -802,10 +802,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -814,11 +810,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -827,6 +823,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -924,7 +924,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -944,7 +944,7 @@
               <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Normal Residuals Test</a:t>
+              <a:t>2kr Analysis on Throughput - QQ Plot Residuals vs Normal Quantiles</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1997,11 +1997,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="18598121"/>
-        <c:axId val="31807928"/>
+        <c:axId val="3416080"/>
+        <c:axId val="17413444"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="18598121"/>
+        <c:axId val="3416080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2057,12 +2057,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31807928"/>
+        <c:crossAx val="17413444"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="31807928"/>
+        <c:axId val="17413444"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2127,7 +2127,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18598121"/>
+        <c:crossAx val="3416080"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2154,7 +2154,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2174,7 +2174,7 @@
               <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Constant std Test (Homoskedasticity)</a:t>
+              <a:t>2kr Analysis on Throughput - QQ Plot Residuals vs Predicted Response (Homoskedasticity)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2235,7 +2235,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$X$69:$X$100</c:f>
+              <c:f>Sheet1!$X$85:$X$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -2340,7 +2340,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$69:$Y$100</c:f>
+              <c:f>Sheet1!$Y$85:$Y$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -2477,6 +2477,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2487,7 +2488,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$X$69:$X$100</c:f>
+              <c:f>Sheet1!$X$85:$X$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -2592,7 +2593,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$101:$Y$132</c:f>
+              <c:f>Sheet1!$Y$117:$Y$148</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -2729,6 +2730,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2739,7 +2741,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$X$69:$X$100</c:f>
+              <c:f>Sheet1!$X$85:$X$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -2844,7 +2846,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$133:$Y$164</c:f>
+              <c:f>Sheet1!$Y$149:$Y$180</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -2981,6 +2983,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2991,7 +2994,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$X$69:$X$100</c:f>
+              <c:f>Sheet1!$X$85:$X$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -3096,7 +3099,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$165:$Y$196</c:f>
+              <c:f>Sheet1!$Y$181:$Y$212</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -3233,6 +3236,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3243,7 +3247,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$X$69:$X$100</c:f>
+              <c:f>Sheet1!$X$85:$X$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -3348,7 +3352,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Y$197:$Y$228</c:f>
+              <c:f>Sheet1!$Y$213:$Y$244</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -3453,11 +3457,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="34329881"/>
-        <c:axId val="84110110"/>
+        <c:axId val="95499455"/>
+        <c:axId val="56514227"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="34329881"/>
+        <c:axId val="95499455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3513,12 +3517,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84110110"/>
+        <c:crossAx val="56514227"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84110110"/>
+        <c:axId val="56514227"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3583,7 +3587,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34329881"/>
+        <c:crossAx val="95499455"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3620,10 +3624,10 @@
       <xdr:rowOff>146160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>200520</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>272520</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3631,8 +3635,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9745920" y="14047560"/>
-        <a:ext cx="7680240" cy="4547520"/>
+        <a:off x="9747360" y="14047560"/>
+        <a:ext cx="8593200" cy="5079600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3645,15 +3649,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>523080</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:colOff>484200</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>171720</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>99000</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>546840</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>96480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3661,8 +3665,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="26674200" y="11657520"/>
-        <a:ext cx="7095240" cy="4131000"/>
+        <a:off x="26660520" y="14099400"/>
+        <a:ext cx="8349480" cy="5100120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3680,13 +3684,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BP242"/>
+  <dimension ref="A1:BP244"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="B65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="26" zoomScaleNormal="26" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U111" activeCellId="0" sqref="U111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.89"/>
@@ -12940,12 +12944,6 @@
         <v>75</v>
       </c>
       <c r="B68" s="55"/>
-      <c r="X68" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y68" s="55" t="s">
-        <v>77</v>
-      </c>
       <c r="AX68" s="11" t="s">
         <v>22</v>
       </c>
@@ -12985,17 +12983,11 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="56" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B69" s="57" t="n">
         <v>2.12</v>
       </c>
-      <c r="X69" s="58" t="n">
-        <v>0.10136</v>
-      </c>
-      <c r="Y69" s="58" t="n">
-        <v>-0.00496000000000001</v>
-      </c>
       <c r="AX69" s="11" t="s">
         <v>22</v>
       </c>
@@ -13034,12 +13026,6 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X70" s="58" t="n">
-        <v>0.10136</v>
-      </c>
-      <c r="Y70" s="58" t="n">
-        <v>-0.00496000000000001</v>
-      </c>
       <c r="AX70" s="11" t="s">
         <v>22</v>
       </c>
@@ -13078,12 +13064,6 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X71" s="58" t="n">
-        <v>0.10016</v>
-      </c>
-      <c r="Y71" s="58" t="n">
-        <v>-0.00376</v>
-      </c>
       <c r="AX71" s="11" t="s">
         <v>22</v>
       </c>
@@ -13122,12 +13102,6 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X72" s="58" t="n">
-        <v>0.10016</v>
-      </c>
-      <c r="Y72" s="58" t="n">
-        <v>-0.00376</v>
-      </c>
       <c r="AX72" s="11" t="s">
         <v>22</v>
       </c>
@@ -13166,12 +13140,6 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X73" s="58" t="n">
-        <v>0.06816</v>
-      </c>
-      <c r="Y73" s="58" t="n">
-        <v>-0.00376000000000001</v>
-      </c>
       <c r="AX73" s="11" t="s">
         <v>22</v>
       </c>
@@ -13210,12 +13178,6 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X74" s="58" t="n">
-        <v>0.06816</v>
-      </c>
-      <c r="Y74" s="58" t="n">
-        <v>-0.00376000000000001</v>
-      </c>
       <c r="AX74" s="11" t="s">
         <v>22</v>
       </c>
@@ -13254,12 +13216,6 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X75" s="58" t="n">
-        <v>0.06816</v>
-      </c>
-      <c r="Y75" s="58" t="n">
-        <v>-0.00376000000000001</v>
-      </c>
       <c r="AX75" s="11" t="s">
         <v>22</v>
       </c>
@@ -13298,12 +13254,6 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X76" s="58" t="n">
-        <v>0.06816</v>
-      </c>
-      <c r="Y76" s="58" t="n">
-        <v>-0.00376000000000001</v>
-      </c>
       <c r="AX76" s="11" t="s">
         <v>22</v>
       </c>
@@ -13342,12 +13292,6 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X77" s="58" t="n">
-        <v>0.10024</v>
-      </c>
-      <c r="Y77" s="58" t="n">
-        <v>-0.00384000000000002</v>
-      </c>
       <c r="AX77" s="11" t="s">
         <v>22</v>
       </c>
@@ -13386,12 +13330,6 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X78" s="58" t="n">
-        <v>0.10024</v>
-      </c>
-      <c r="Y78" s="58" t="n">
-        <v>-0.00384000000000002</v>
-      </c>
       <c r="AX78" s="11" t="s">
         <v>22</v>
       </c>
@@ -13430,12 +13368,6 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X79" s="58" t="n">
-        <v>0.09888</v>
-      </c>
-      <c r="Y79" s="58" t="n">
-        <v>-0.00248</v>
-      </c>
       <c r="AX79" s="11" t="s">
         <v>22</v>
       </c>
@@ -13474,12 +13406,6 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X80" s="58" t="n">
-        <v>0.09856</v>
-      </c>
-      <c r="Y80" s="58" t="n">
-        <v>-0.00216000000000001</v>
-      </c>
       <c r="AX80" s="11" t="s">
         <v>22</v>
       </c>
@@ -13518,12 +13444,6 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X81" s="58" t="n">
-        <v>0.06776</v>
-      </c>
-      <c r="Y81" s="58" t="n">
-        <v>-0.00336000000000002</v>
-      </c>
       <c r="AX81" s="11" t="s">
         <v>22</v>
       </c>
@@ -13563,25 +13483,19 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="C82" s="55" t="s">
+      <c r="E82" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="D82" s="55" t="s">
+      <c r="F82" s="55" t="s">
         <v>81</v>
-      </c>
-      <c r="E82" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="F82" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="X82" s="58" t="n">
-        <v>0.06768</v>
-      </c>
-      <c r="Y82" s="58" t="n">
-        <v>-0.00328000000000001</v>
       </c>
       <c r="AX82" s="11" t="s">
         <v>22</v>
@@ -13621,28 +13535,22 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="C83" s="60" t="n">
+      <c r="B83" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" s="59" t="n">
         <f aca="false">(B83-0.5)/$B$242</f>
         <v>0.003125</v>
       </c>
-      <c r="D83" s="60" t="n">
+      <c r="D83" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C83)</f>
         <v>-2.73436878653318</v>
       </c>
-      <c r="E83" s="58" t="n">
+      <c r="E83" s="60" t="n">
         <v>-0.00496000000000001</v>
       </c>
-      <c r="F83" s="58" t="n">
+      <c r="F83" s="60" t="n">
         <v>-0.00496000000000001</v>
-      </c>
-      <c r="X83" s="58" t="n">
-        <v>0.06768</v>
-      </c>
-      <c r="Y83" s="58" t="n">
-        <v>-0.00328000000000001</v>
       </c>
       <c r="AX83" s="11" t="s">
         <v>22</v>
@@ -13682,28 +13590,28 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="59" t="n">
+      <c r="B84" s="58" t="n">
         <v>2</v>
       </c>
-      <c r="C84" s="60" t="n">
+      <c r="C84" s="59" t="n">
         <f aca="false">(B84-0.5)/$B$242</f>
         <v>0.009375</v>
       </c>
-      <c r="D84" s="60" t="n">
+      <c r="D84" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C84)</f>
         <v>-2.35046442310908</v>
       </c>
-      <c r="E84" s="58" t="n">
+      <c r="E84" s="60" t="n">
         <v>-0.00496000000000001</v>
       </c>
-      <c r="F84" s="58" t="n">
+      <c r="F84" s="60" t="n">
         <v>-0.00496000000000001</v>
       </c>
-      <c r="X84" s="58" t="n">
-        <v>0.10136</v>
-      </c>
-      <c r="Y84" s="58" t="n">
-        <v>-0.00496000000000001</v>
+      <c r="X84" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y84" s="55" t="s">
+        <v>83</v>
       </c>
       <c r="AX84" s="11" t="s">
         <v>22</v>
@@ -13743,27 +13651,27 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="59" t="n">
+      <c r="B85" s="58" t="n">
         <v>3</v>
       </c>
-      <c r="C85" s="60" t="n">
+      <c r="C85" s="59" t="n">
         <f aca="false">(B85-0.5)/$B$242</f>
         <v>0.015625</v>
       </c>
-      <c r="D85" s="60" t="n">
+      <c r="D85" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C85)</f>
         <v>-2.15387469406146</v>
       </c>
-      <c r="E85" s="58" t="n">
+      <c r="E85" s="60" t="n">
         <v>-0.00496000000000001</v>
       </c>
-      <c r="F85" s="58" t="n">
+      <c r="F85" s="60" t="n">
         <v>-0.00376</v>
       </c>
-      <c r="X85" s="58" t="n">
+      <c r="X85" s="60" t="n">
         <v>0.10136</v>
       </c>
-      <c r="Y85" s="58" t="n">
+      <c r="Y85" s="60" t="n">
         <v>-0.00496000000000001</v>
       </c>
       <c r="AX85" s="11" t="s">
@@ -13804,28 +13712,28 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="59" t="n">
+      <c r="B86" s="58" t="n">
         <v>4</v>
       </c>
-      <c r="C86" s="60" t="n">
+      <c r="C86" s="59" t="n">
         <f aca="false">(B86-0.5)/$B$242</f>
         <v>0.021875</v>
       </c>
-      <c r="D86" s="60" t="n">
+      <c r="D86" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C86)</f>
         <v>-2.01647815742854</v>
       </c>
-      <c r="E86" s="58" t="n">
+      <c r="E86" s="60" t="n">
         <v>-0.00496000000000001</v>
       </c>
-      <c r="F86" s="58" t="n">
+      <c r="F86" s="60" t="n">
         <v>-0.00376</v>
       </c>
-      <c r="X86" s="58" t="n">
-        <v>0.10128</v>
-      </c>
-      <c r="Y86" s="58" t="n">
-        <v>-0.00488000000000001</v>
+      <c r="X86" s="60" t="n">
+        <v>0.10136</v>
+      </c>
+      <c r="Y86" s="60" t="n">
+        <v>-0.00496000000000001</v>
       </c>
       <c r="AX86" s="11" t="s">
         <v>22</v>
@@ -13865,28 +13773,28 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="59" t="n">
+      <c r="B87" s="58" t="n">
         <v>5</v>
       </c>
-      <c r="C87" s="60" t="n">
+      <c r="C87" s="59" t="n">
         <f aca="false">(B87-0.5)/$B$242</f>
         <v>0.028125</v>
       </c>
-      <c r="D87" s="60" t="n">
+      <c r="D87" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C87)</f>
         <v>-1.90909374120198</v>
       </c>
-      <c r="E87" s="58" t="n">
+      <c r="E87" s="60" t="n">
         <v>-0.00496000000000001</v>
       </c>
-      <c r="F87" s="58" t="n">
+      <c r="F87" s="60" t="n">
         <v>-0.00376000000000001</v>
       </c>
-      <c r="X87" s="58" t="n">
-        <v>0.10128</v>
-      </c>
-      <c r="Y87" s="58" t="n">
-        <v>-0.00488000000000001</v>
+      <c r="X87" s="60" t="n">
+        <v>0.10016</v>
+      </c>
+      <c r="Y87" s="60" t="n">
+        <v>-0.00376</v>
       </c>
       <c r="AX87" s="11" t="s">
         <v>22</v>
@@ -13926,28 +13834,28 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="59" t="n">
+      <c r="B88" s="58" t="n">
         <v>6</v>
       </c>
-      <c r="C88" s="60" t="n">
+      <c r="C88" s="59" t="n">
         <f aca="false">(B88-0.5)/$B$242</f>
         <v>0.034375</v>
       </c>
-      <c r="D88" s="60" t="n">
+      <c r="D88" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C88)</f>
         <v>-1.82005913441812</v>
       </c>
-      <c r="E88" s="58" t="n">
+      <c r="E88" s="60" t="n">
         <v>-0.00496000000000001</v>
       </c>
-      <c r="F88" s="58" t="n">
+      <c r="F88" s="60" t="n">
         <v>-0.00376000000000001</v>
       </c>
-      <c r="X88" s="58" t="n">
-        <v>0.06816</v>
-      </c>
-      <c r="Y88" s="58" t="n">
-        <v>-0.00376000000000001</v>
+      <c r="X88" s="60" t="n">
+        <v>0.10016</v>
+      </c>
+      <c r="Y88" s="60" t="n">
+        <v>-0.00376</v>
       </c>
       <c r="AX88" s="11" t="s">
         <v>22</v>
@@ -13987,27 +13895,27 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="59" t="n">
+      <c r="B89" s="58" t="n">
         <v>7</v>
       </c>
-      <c r="C89" s="60" t="n">
+      <c r="C89" s="59" t="n">
         <f aca="false">(B89-0.5)/$B$242</f>
         <v>0.040625</v>
       </c>
-      <c r="D89" s="60" t="n">
+      <c r="D89" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C89)</f>
         <v>-1.74347888187728</v>
       </c>
-      <c r="E89" s="58" t="n">
+      <c r="E89" s="60" t="n">
         <v>-0.00496000000000001</v>
       </c>
-      <c r="F89" s="58" t="n">
+      <c r="F89" s="60" t="n">
         <v>-0.00376000000000001</v>
       </c>
-      <c r="X89" s="58" t="n">
+      <c r="X89" s="60" t="n">
         <v>0.06816</v>
       </c>
-      <c r="Y89" s="58" t="n">
+      <c r="Y89" s="60" t="n">
         <v>-0.00376000000000001</v>
       </c>
       <c r="AX89" s="11" t="s">
@@ -14048,27 +13956,27 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="59" t="n">
+      <c r="B90" s="58" t="n">
         <v>8</v>
       </c>
-      <c r="C90" s="60" t="n">
+      <c r="C90" s="59" t="n">
         <f aca="false">(B90-0.5)/$B$242</f>
         <v>0.046875</v>
       </c>
-      <c r="D90" s="60" t="n">
+      <c r="D90" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C90)</f>
         <v>-1.67593972277344</v>
       </c>
-      <c r="E90" s="58" t="n">
+      <c r="E90" s="60" t="n">
         <v>-0.00488000000000001</v>
       </c>
-      <c r="F90" s="58" t="n">
+      <c r="F90" s="60" t="n">
         <v>-0.00376000000000001</v>
       </c>
-      <c r="X90" s="58" t="n">
+      <c r="X90" s="60" t="n">
         <v>0.06816</v>
       </c>
-      <c r="Y90" s="58" t="n">
+      <c r="Y90" s="60" t="n">
         <v>-0.00376000000000001</v>
       </c>
       <c r="AX90" s="11" t="s">
@@ -14109,27 +14017,27 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="59" t="n">
+      <c r="B91" s="58" t="n">
         <v>9</v>
       </c>
-      <c r="C91" s="60" t="n">
+      <c r="C91" s="59" t="n">
         <f aca="false">(B91-0.5)/$B$242</f>
         <v>0.053125</v>
       </c>
-      <c r="D91" s="60" t="n">
+      <c r="D91" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C91)</f>
         <v>-1.61528033615581</v>
       </c>
-      <c r="E91" s="58" t="n">
+      <c r="E91" s="60" t="n">
         <v>-0.00488000000000001</v>
       </c>
-      <c r="F91" s="58" t="n">
+      <c r="F91" s="60" t="n">
         <v>-0.00384000000000002</v>
       </c>
-      <c r="X91" s="58" t="n">
+      <c r="X91" s="60" t="n">
         <v>0.06816</v>
       </c>
-      <c r="Y91" s="58" t="n">
+      <c r="Y91" s="60" t="n">
         <v>-0.00376000000000001</v>
       </c>
       <c r="AX91" s="11" t="s">
@@ -14170,28 +14078,28 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="59" t="n">
+      <c r="B92" s="58" t="n">
         <v>10</v>
       </c>
-      <c r="C92" s="60" t="n">
+      <c r="C92" s="59" t="n">
         <f aca="false">(B92-0.5)/$B$242</f>
         <v>0.059375</v>
       </c>
-      <c r="D92" s="60" t="n">
+      <c r="D92" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C92)</f>
         <v>-1.56004181507316</v>
       </c>
-      <c r="E92" s="58" t="n">
+      <c r="E92" s="60" t="n">
         <v>-0.0048</v>
       </c>
-      <c r="F92" s="58" t="n">
+      <c r="F92" s="60" t="n">
         <v>-0.00384000000000002</v>
       </c>
-      <c r="X92" s="58" t="n">
-        <v>0.10136</v>
-      </c>
-      <c r="Y92" s="58" t="n">
-        <v>-0.00496000000000001</v>
+      <c r="X92" s="60" t="n">
+        <v>0.06816</v>
+      </c>
+      <c r="Y92" s="60" t="n">
+        <v>-0.00376000000000001</v>
       </c>
       <c r="AX92" s="11" t="s">
         <v>22</v>
@@ -14231,28 +14139,28 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="59" t="n">
+      <c r="B93" s="58" t="n">
         <v>11</v>
       </c>
-      <c r="C93" s="60" t="n">
+      <c r="C93" s="59" t="n">
         <f aca="false">(B93-0.5)/$B$242</f>
         <v>0.065625</v>
       </c>
-      <c r="D93" s="60" t="n">
+      <c r="D93" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C93)</f>
         <v>-1.50919091978405</v>
       </c>
-      <c r="E93" s="58" t="n">
+      <c r="E93" s="60" t="n">
         <v>-0.0048</v>
       </c>
-      <c r="F93" s="58" t="n">
+      <c r="F93" s="60" t="n">
         <v>-0.00248</v>
       </c>
-      <c r="X93" s="58" t="n">
-        <v>0.10136</v>
-      </c>
-      <c r="Y93" s="58" t="n">
-        <v>-0.00496000000000001</v>
+      <c r="X93" s="60" t="n">
+        <v>0.10024</v>
+      </c>
+      <c r="Y93" s="60" t="n">
+        <v>-0.00384000000000002</v>
       </c>
       <c r="AX93" s="11" t="s">
         <v>22</v>
@@ -14292,28 +14200,28 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="59" t="n">
+      <c r="B94" s="58" t="n">
         <v>12</v>
       </c>
-      <c r="C94" s="60" t="n">
+      <c r="C94" s="59" t="n">
         <f aca="false">(B94-0.5)/$B$242</f>
         <v>0.071875</v>
       </c>
-      <c r="D94" s="60" t="n">
+      <c r="D94" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C94)</f>
         <v>-1.46196792364549</v>
       </c>
-      <c r="E94" s="58" t="n">
+      <c r="E94" s="60" t="n">
         <v>-0.00384000000000002</v>
       </c>
-      <c r="F94" s="58" t="n">
+      <c r="F94" s="60" t="n">
         <v>-0.00216000000000001</v>
       </c>
-      <c r="X94" s="58" t="n">
-        <v>0.1012</v>
-      </c>
-      <c r="Y94" s="58" t="n">
-        <v>-0.0048</v>
+      <c r="X94" s="60" t="n">
+        <v>0.10024</v>
+      </c>
+      <c r="Y94" s="60" t="n">
+        <v>-0.00384000000000002</v>
       </c>
       <c r="AX94" s="11" t="s">
         <v>22</v>
@@ -14353,28 +14261,28 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="59" t="n">
+      <c r="B95" s="58" t="n">
         <v>13</v>
       </c>
-      <c r="C95" s="60" t="n">
+      <c r="C95" s="59" t="n">
         <f aca="false">(B95-0.5)/$B$242</f>
         <v>0.078125</v>
       </c>
-      <c r="D95" s="60" t="n">
+      <c r="D95" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C95)</f>
         <v>-1.41779713799627</v>
       </c>
-      <c r="E95" s="58" t="n">
+      <c r="E95" s="60" t="n">
         <v>-0.00384000000000002</v>
       </c>
-      <c r="F95" s="58" t="n">
+      <c r="F95" s="60" t="n">
         <v>-0.00336000000000002</v>
       </c>
-      <c r="X95" s="58" t="n">
-        <v>0.1012</v>
-      </c>
-      <c r="Y95" s="58" t="n">
-        <v>-0.0048</v>
+      <c r="X95" s="60" t="n">
+        <v>0.09888</v>
+      </c>
+      <c r="Y95" s="60" t="n">
+        <v>-0.00248</v>
       </c>
       <c r="AX95" s="11" t="s">
         <v>22</v>
@@ -14414,28 +14322,28 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="59" t="n">
+      <c r="B96" s="58" t="n">
         <v>14</v>
       </c>
-      <c r="C96" s="60" t="n">
+      <c r="C96" s="59" t="n">
         <f aca="false">(B96-0.5)/$B$242</f>
         <v>0.084375</v>
       </c>
-      <c r="D96" s="60" t="n">
+      <c r="D96" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C96)</f>
         <v>-1.37623141165149</v>
       </c>
-      <c r="E96" s="58" t="n">
+      <c r="E96" s="60" t="n">
         <v>-0.00376000000000001</v>
       </c>
-      <c r="F96" s="58" t="n">
+      <c r="F96" s="60" t="n">
         <v>-0.00328000000000001</v>
       </c>
-      <c r="X96" s="58" t="n">
-        <v>0.06816</v>
-      </c>
-      <c r="Y96" s="58" t="n">
-        <v>-0.00376000000000001</v>
+      <c r="X96" s="60" t="n">
+        <v>0.09856</v>
+      </c>
+      <c r="Y96" s="60" t="n">
+        <v>-0.00216000000000001</v>
       </c>
       <c r="AX96" s="11" t="s">
         <v>22</v>
@@ -14475,28 +14383,28 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="59" t="n">
+      <c r="B97" s="58" t="n">
         <v>15</v>
       </c>
-      <c r="C97" s="60" t="n">
+      <c r="C97" s="59" t="n">
         <f aca="false">(B97-0.5)/$B$242</f>
         <v>0.090625</v>
       </c>
-      <c r="D97" s="60" t="n">
+      <c r="D97" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C97)</f>
         <v>-1.3369161761535</v>
       </c>
-      <c r="E97" s="58" t="n">
+      <c r="E97" s="60" t="n">
         <v>-0.00376000000000001</v>
       </c>
-      <c r="F97" s="58" t="n">
+      <c r="F97" s="60" t="n">
         <v>-0.00328000000000001</v>
       </c>
-      <c r="X97" s="58" t="n">
-        <v>0.06816</v>
-      </c>
-      <c r="Y97" s="58" t="n">
-        <v>-0.00376000000000001</v>
+      <c r="X97" s="60" t="n">
+        <v>0.06776</v>
+      </c>
+      <c r="Y97" s="60" t="n">
+        <v>-0.00336000000000002</v>
       </c>
       <c r="AX97" s="11" t="s">
         <v>22</v>
@@ -14536,28 +14444,28 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="59" t="n">
+      <c r="B98" s="58" t="n">
         <v>16</v>
       </c>
-      <c r="C98" s="60" t="n">
+      <c r="C98" s="59" t="n">
         <f aca="false">(B98-0.5)/$B$242</f>
         <v>0.096875</v>
       </c>
-      <c r="D98" s="60" t="n">
+      <c r="D98" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C98)</f>
         <v>-1.29956529745035</v>
       </c>
-      <c r="E98" s="58" t="n">
+      <c r="E98" s="60" t="n">
         <v>-0.00376000000000001</v>
       </c>
-      <c r="F98" s="58" t="n">
+      <c r="F98" s="60" t="n">
         <v>-0.00496000000000001</v>
       </c>
-      <c r="X98" s="58" t="n">
-        <v>0.06816</v>
-      </c>
-      <c r="Y98" s="58" t="n">
-        <v>-0.00376000000000001</v>
+      <c r="X98" s="60" t="n">
+        <v>0.06768</v>
+      </c>
+      <c r="Y98" s="60" t="n">
+        <v>-0.00328000000000001</v>
       </c>
       <c r="AX98" s="11" t="s">
         <v>22</v>
@@ -14597,28 +14505,28 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="59" t="n">
+      <c r="B99" s="58" t="n">
         <v>17</v>
       </c>
-      <c r="C99" s="60" t="n">
+      <c r="C99" s="59" t="n">
         <f aca="false">(B99-0.5)/$B$242</f>
         <v>0.103125</v>
       </c>
-      <c r="D99" s="60" t="n">
+      <c r="D99" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C99)</f>
         <v>-1.26394435523673</v>
       </c>
-      <c r="E99" s="58" t="n">
+      <c r="E99" s="60" t="n">
         <v>-0.00376000000000001</v>
       </c>
-      <c r="F99" s="58" t="n">
+      <c r="F99" s="60" t="n">
         <v>-0.00496000000000001</v>
       </c>
-      <c r="X99" s="58" t="n">
-        <v>0.06816</v>
-      </c>
-      <c r="Y99" s="58" t="n">
-        <v>-0.00376000000000001</v>
+      <c r="X99" s="60" t="n">
+        <v>0.06768</v>
+      </c>
+      <c r="Y99" s="60" t="n">
+        <v>-0.00328000000000001</v>
       </c>
       <c r="AX99" s="11" t="s">
         <v>22</v>
@@ -14658,27 +14566,27 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="59" t="n">
+      <c r="B100" s="58" t="n">
         <v>18</v>
       </c>
-      <c r="C100" s="60" t="n">
+      <c r="C100" s="59" t="n">
         <f aca="false">(B100-0.5)/$B$242</f>
         <v>0.109375</v>
       </c>
-      <c r="D100" s="60" t="n">
+      <c r="D100" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C100)</f>
         <v>-1.22985875921659</v>
       </c>
-      <c r="E100" s="58" t="n">
+      <c r="E100" s="60" t="n">
         <v>-0.00376000000000001</v>
       </c>
-      <c r="F100" s="58" t="n">
+      <c r="F100" s="60" t="n">
         <v>-0.00488000000000001</v>
       </c>
-      <c r="X100" s="58" t="n">
+      <c r="X100" s="60" t="n">
         <v>0.10136</v>
       </c>
-      <c r="Y100" s="58" t="n">
+      <c r="Y100" s="60" t="n">
         <v>-0.00496000000000001</v>
       </c>
       <c r="AX100" s="11" t="s">
@@ -14719,28 +14627,28 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="59" t="n">
+      <c r="B101" s="58" t="n">
         <v>19</v>
       </c>
-      <c r="C101" s="60" t="n">
+      <c r="C101" s="59" t="n">
         <f aca="false">(B101-0.5)/$B$242</f>
         <v>0.115625</v>
       </c>
-      <c r="D101" s="60" t="n">
+      <c r="D101" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C101)</f>
         <v>-1.19714510997237</v>
       </c>
-      <c r="E101" s="58" t="n">
+      <c r="E101" s="60" t="n">
         <v>-0.00376000000000001</v>
       </c>
-      <c r="F101" s="58" t="n">
+      <c r="F101" s="60" t="n">
         <v>-0.00488000000000001</v>
       </c>
-      <c r="X101" s="58" t="n">
+      <c r="X101" s="60" t="n">
         <v>0.10136</v>
       </c>
-      <c r="Y101" s="58" t="n">
-        <v>-0.00216</v>
+      <c r="Y101" s="60" t="n">
+        <v>-0.00496000000000001</v>
       </c>
       <c r="AX101" s="11" t="s">
         <v>22</v>
@@ -14780,28 +14688,28 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="59" t="n">
+      <c r="B102" s="58" t="n">
         <v>20</v>
       </c>
-      <c r="C102" s="60" t="n">
+      <c r="C102" s="59" t="n">
         <f aca="false">(B102-0.5)/$B$242</f>
         <v>0.121875</v>
       </c>
-      <c r="D102" s="60" t="n">
+      <c r="D102" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C102)</f>
         <v>-1.16566479312306</v>
       </c>
-      <c r="E102" s="58" t="n">
+      <c r="E102" s="60" t="n">
         <v>-0.00376000000000001</v>
       </c>
-      <c r="F102" s="58" t="n">
+      <c r="F102" s="60" t="n">
         <v>-0.00376000000000001</v>
       </c>
-      <c r="X102" s="58" t="n">
-        <v>0.10136</v>
-      </c>
-      <c r="Y102" s="58" t="n">
-        <v>-0.00216</v>
+      <c r="X102" s="60" t="n">
+        <v>0.10128</v>
+      </c>
+      <c r="Y102" s="60" t="n">
+        <v>-0.00488000000000001</v>
       </c>
       <c r="AX102" s="11" t="s">
         <v>22</v>
@@ -14841,28 +14749,28 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="59" t="n">
+      <c r="B103" s="58" t="n">
         <v>21</v>
       </c>
-      <c r="C103" s="60" t="n">
+      <c r="C103" s="59" t="n">
         <f aca="false">(B103-0.5)/$B$242</f>
         <v>0.128125</v>
       </c>
-      <c r="D103" s="60" t="n">
+      <c r="D103" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C103)</f>
         <v>-1.13529914581985</v>
       </c>
-      <c r="E103" s="58" t="n">
+      <c r="E103" s="60" t="n">
         <v>-0.00376000000000001</v>
       </c>
-      <c r="F103" s="58" t="n">
+      <c r="F103" s="60" t="n">
         <v>-0.00376000000000001</v>
       </c>
-      <c r="X103" s="58" t="n">
-        <v>0.10016</v>
-      </c>
-      <c r="Y103" s="58" t="n">
-        <v>-0.00136</v>
+      <c r="X103" s="60" t="n">
+        <v>0.10128</v>
+      </c>
+      <c r="Y103" s="60" t="n">
+        <v>-0.00488000000000001</v>
       </c>
       <c r="AX103" s="11" t="s">
         <v>22</v>
@@ -14902,28 +14810,28 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="59" t="n">
+      <c r="B104" s="58" t="n">
         <v>22</v>
       </c>
-      <c r="C104" s="60" t="n">
+      <c r="C104" s="59" t="n">
         <f aca="false">(B104-0.5)/$B$242</f>
         <v>0.134375</v>
       </c>
-      <c r="D104" s="60" t="n">
+      <c r="D104" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C104)</f>
         <v>-1.10594575260395</v>
       </c>
-      <c r="E104" s="58" t="n">
+      <c r="E104" s="60" t="n">
         <v>-0.00376000000000001</v>
       </c>
-      <c r="F104" s="58" t="n">
+      <c r="F104" s="60" t="n">
         <v>-0.00376000000000001</v>
       </c>
-      <c r="X104" s="58" t="n">
-        <v>0.10016</v>
-      </c>
-      <c r="Y104" s="58" t="n">
-        <v>-0.00136</v>
+      <c r="X104" s="60" t="n">
+        <v>0.06816</v>
+      </c>
+      <c r="Y104" s="60" t="n">
+        <v>-0.00376000000000001</v>
       </c>
       <c r="AX104" s="11" t="s">
         <v>22</v>
@@ -14963,28 +14871,28 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="59" t="n">
+      <c r="B105" s="58" t="n">
         <v>23</v>
       </c>
-      <c r="C105" s="60" t="n">
+      <c r="C105" s="59" t="n">
         <f aca="false">(B105-0.5)/$B$242</f>
         <v>0.140625</v>
       </c>
-      <c r="D105" s="60" t="n">
+      <c r="D105" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C105)</f>
         <v>-1.07751556704028</v>
       </c>
-      <c r="E105" s="58" t="n">
+      <c r="E105" s="60" t="n">
         <v>-0.00376000000000001</v>
       </c>
-      <c r="F105" s="58" t="n">
+      <c r="F105" s="60" t="n">
         <v>-0.00376000000000001</v>
       </c>
-      <c r="X105" s="58" t="n">
+      <c r="X105" s="60" t="n">
         <v>0.06816</v>
       </c>
-      <c r="Y105" s="58" t="n">
-        <v>0.00023999999999999</v>
+      <c r="Y105" s="60" t="n">
+        <v>-0.00376000000000001</v>
       </c>
       <c r="AX105" s="11" t="s">
         <v>22</v>
@@ -15024,28 +14932,28 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="59" t="n">
+      <c r="B106" s="58" t="n">
         <v>24</v>
       </c>
-      <c r="C106" s="60" t="n">
+      <c r="C106" s="59" t="n">
         <f aca="false">(B106-0.5)/$B$242</f>
         <v>0.146875</v>
       </c>
-      <c r="D106" s="60" t="n">
+      <c r="D106" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C106)</f>
         <v>-1.04993064688034</v>
       </c>
-      <c r="E106" s="58" t="n">
+      <c r="E106" s="60" t="n">
         <v>-0.00376000000000001</v>
       </c>
-      <c r="F106" s="58" t="n">
+      <c r="F106" s="60" t="n">
         <v>-0.00496000000000001</v>
       </c>
-      <c r="X106" s="58" t="n">
+      <c r="X106" s="60" t="n">
         <v>0.06816</v>
       </c>
-      <c r="Y106" s="58" t="n">
-        <v>0.00023999999999999</v>
+      <c r="Y106" s="60" t="n">
+        <v>-0.00376000000000001</v>
       </c>
       <c r="AX106" s="11" t="s">
         <v>22</v>
@@ -15085,28 +14993,28 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="59" t="n">
+      <c r="B107" s="58" t="n">
         <v>25</v>
       </c>
-      <c r="C107" s="60" t="n">
+      <c r="C107" s="59" t="n">
         <f aca="false">(B107-0.5)/$B$242</f>
         <v>0.153125</v>
       </c>
-      <c r="D107" s="60" t="n">
+      <c r="D107" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C107)</f>
         <v>-1.02312235168363</v>
       </c>
-      <c r="E107" s="58" t="n">
+      <c r="E107" s="60" t="n">
         <v>-0.00376000000000001</v>
       </c>
-      <c r="F107" s="58" t="n">
+      <c r="F107" s="60" t="n">
         <v>-0.00496000000000001</v>
       </c>
-      <c r="X107" s="58" t="n">
+      <c r="X107" s="60" t="n">
         <v>0.06816</v>
       </c>
-      <c r="Y107" s="58" t="n">
-        <v>0.00023999999999999</v>
+      <c r="Y107" s="60" t="n">
+        <v>-0.00376000000000001</v>
       </c>
       <c r="AX107" s="11" t="s">
         <v>22</v>
@@ -15146,28 +15054,28 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="59" t="n">
+      <c r="B108" s="58" t="n">
         <v>26</v>
       </c>
-      <c r="C108" s="60" t="n">
+      <c r="C108" s="59" t="n">
         <f aca="false">(B108-0.5)/$B$242</f>
         <v>0.159375</v>
       </c>
-      <c r="D108" s="60" t="n">
+      <c r="D108" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C108)</f>
         <v>-0.997029893615007</v>
       </c>
-      <c r="E108" s="58" t="n">
+      <c r="E108" s="60" t="n">
         <v>-0.00376</v>
       </c>
-      <c r="F108" s="58" t="n">
+      <c r="F108" s="60" t="n">
         <v>-0.0048</v>
       </c>
-      <c r="X108" s="58" t="n">
-        <v>0.06816</v>
-      </c>
-      <c r="Y108" s="58" t="n">
-        <v>0.00023999999999999</v>
+      <c r="X108" s="60" t="n">
+        <v>0.10136</v>
+      </c>
+      <c r="Y108" s="60" t="n">
+        <v>-0.00496000000000001</v>
       </c>
       <c r="AX108" s="11" t="s">
         <v>22</v>
@@ -15207,28 +15115,28 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="59" t="n">
+      <c r="B109" s="58" t="n">
         <v>27</v>
       </c>
-      <c r="C109" s="60" t="n">
+      <c r="C109" s="59" t="n">
         <f aca="false">(B109-0.5)/$B$242</f>
         <v>0.165625</v>
       </c>
-      <c r="D109" s="60" t="n">
+      <c r="D109" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C109)</f>
         <v>-0.971599161193188</v>
       </c>
-      <c r="E109" s="58" t="n">
+      <c r="E109" s="60" t="n">
         <v>-0.00376</v>
       </c>
-      <c r="F109" s="58" t="n">
+      <c r="F109" s="60" t="n">
         <v>-0.0048</v>
       </c>
-      <c r="X109" s="58" t="n">
-        <v>0.10024</v>
-      </c>
-      <c r="Y109" s="58" t="n">
-        <v>-0.00104000000000001</v>
+      <c r="X109" s="60" t="n">
+        <v>0.10136</v>
+      </c>
+      <c r="Y109" s="60" t="n">
+        <v>-0.00496000000000001</v>
       </c>
       <c r="AX109" s="11" t="s">
         <v>22</v>
@@ -15268,28 +15176,28 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="59" t="n">
+      <c r="B110" s="58" t="n">
         <v>28</v>
       </c>
-      <c r="C110" s="60" t="n">
+      <c r="C110" s="59" t="n">
         <f aca="false">(B110-0.5)/$B$242</f>
         <v>0.171875</v>
       </c>
-      <c r="D110" s="60" t="n">
+      <c r="D110" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C110)</f>
         <v>-0.946781756301045</v>
       </c>
-      <c r="E110" s="58" t="n">
+      <c r="E110" s="60" t="n">
         <v>-0.00336000000000002</v>
       </c>
-      <c r="F110" s="58" t="n">
+      <c r="F110" s="60" t="n">
         <v>-0.00376000000000001</v>
       </c>
-      <c r="X110" s="58" t="n">
-        <v>0.10024</v>
-      </c>
-      <c r="Y110" s="58" t="n">
-        <v>-0.00104000000000001</v>
+      <c r="X110" s="60" t="n">
+        <v>0.1012</v>
+      </c>
+      <c r="Y110" s="60" t="n">
+        <v>-0.0048</v>
       </c>
       <c r="AX110" s="11" t="s">
         <v>22</v>
@@ -15329,28 +15237,28 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="59" t="n">
+      <c r="B111" s="58" t="n">
         <v>29</v>
       </c>
-      <c r="C111" s="60" t="n">
+      <c r="C111" s="59" t="n">
         <f aca="false">(B111-0.5)/$B$242</f>
         <v>0.178125</v>
       </c>
-      <c r="D111" s="60" t="n">
+      <c r="D111" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C111)</f>
         <v>-0.922534199498215</v>
       </c>
-      <c r="E111" s="58" t="n">
+      <c r="E111" s="60" t="n">
         <v>-0.00336</v>
       </c>
-      <c r="F111" s="58" t="n">
+      <c r="F111" s="60" t="n">
         <v>-0.00376000000000001</v>
       </c>
-      <c r="X111" s="58" t="n">
-        <v>0.09888</v>
-      </c>
-      <c r="Y111" s="58" t="n">
-        <v>-7.99999999999967E-005</v>
+      <c r="X111" s="60" t="n">
+        <v>0.1012</v>
+      </c>
+      <c r="Y111" s="60" t="n">
+        <v>-0.0048</v>
       </c>
       <c r="AX111" s="11" t="s">
         <v>22</v>
@@ -15390,28 +15298,28 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="59" t="n">
+      <c r="B112" s="58" t="n">
         <v>30</v>
       </c>
-      <c r="C112" s="60" t="n">
+      <c r="C112" s="59" t="n">
         <f aca="false">(B112-0.5)/$B$242</f>
         <v>0.184375</v>
       </c>
-      <c r="D112" s="60" t="n">
+      <c r="D112" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C112)</f>
         <v>-0.898817269385916</v>
       </c>
-      <c r="E112" s="58" t="n">
+      <c r="E112" s="60" t="n">
         <v>-0.00328000000000001</v>
       </c>
-      <c r="F112" s="58" t="n">
+      <c r="F112" s="60" t="n">
         <v>-0.00376000000000001</v>
       </c>
-      <c r="X112" s="58" t="n">
-        <v>0.09856</v>
-      </c>
-      <c r="Y112" s="58" t="n">
-        <v>-0.000560000000000005</v>
+      <c r="X112" s="60" t="n">
+        <v>0.06816</v>
+      </c>
+      <c r="Y112" s="60" t="n">
+        <v>-0.00376000000000001</v>
       </c>
       <c r="AX112" s="11" t="s">
         <v>22</v>
@@ -15451,28 +15359,28 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="59" t="n">
+      <c r="B113" s="58" t="n">
         <v>31</v>
       </c>
-      <c r="C113" s="60" t="n">
+      <c r="C113" s="59" t="n">
         <f aca="false">(B113-0.5)/$B$242</f>
         <v>0.190625</v>
       </c>
-      <c r="D113" s="60" t="n">
+      <c r="D113" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C113)</f>
         <v>-0.875595449658795</v>
       </c>
-      <c r="E113" s="58" t="n">
+      <c r="E113" s="60" t="n">
         <v>-0.00328000000000001</v>
       </c>
-      <c r="F113" s="58" t="n">
+      <c r="F113" s="60" t="n">
         <v>-0.00376000000000001</v>
       </c>
-      <c r="X113" s="58" t="n">
-        <v>0.06776</v>
-      </c>
-      <c r="Y113" s="58" t="n">
-        <v>0.000639999999999988</v>
+      <c r="X113" s="60" t="n">
+        <v>0.06816</v>
+      </c>
+      <c r="Y113" s="60" t="n">
+        <v>-0.00376000000000001</v>
       </c>
       <c r="AX113" s="11" t="s">
         <v>22</v>
@@ -15512,28 +15420,28 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="59" t="n">
+      <c r="B114" s="58" t="n">
         <v>32</v>
       </c>
-      <c r="C114" s="60" t="n">
+      <c r="C114" s="59" t="n">
         <f aca="false">(B114-0.5)/$B$242</f>
         <v>0.196875</v>
       </c>
-      <c r="D114" s="60" t="n">
+      <c r="D114" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C114)</f>
         <v>-0.852836463351083</v>
       </c>
-      <c r="E114" s="58" t="n">
+      <c r="E114" s="60" t="n">
         <v>-0.00327999999999999</v>
       </c>
-      <c r="F114" s="58" t="n">
+      <c r="F114" s="60" t="n">
         <v>-0.00496000000000001</v>
       </c>
-      <c r="X114" s="58" t="n">
-        <v>0.06768</v>
-      </c>
-      <c r="Y114" s="58" t="n">
-        <v>0.000719999999999998</v>
+      <c r="X114" s="60" t="n">
+        <v>0.06816</v>
+      </c>
+      <c r="Y114" s="60" t="n">
+        <v>-0.00376000000000001</v>
       </c>
       <c r="AX114" s="11" t="s">
         <v>22</v>
@@ -15573,28 +15481,28 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="59" t="n">
+      <c r="B115" s="58" t="n">
         <v>33</v>
       </c>
-      <c r="C115" s="60" t="n">
+      <c r="C115" s="59" t="n">
         <f aca="false">(B115-0.5)/$B$242</f>
         <v>0.203125</v>
       </c>
-      <c r="D115" s="60" t="n">
+      <c r="D115" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C115)</f>
         <v>-0.830510878205399</v>
       </c>
-      <c r="E115" s="58" t="n">
+      <c r="E115" s="60" t="n">
         <v>-0.00264000000000002</v>
       </c>
-      <c r="F115" s="58" t="n">
+      <c r="F115" s="60" t="n">
         <v>-0.00216</v>
       </c>
-      <c r="X115" s="58" t="n">
-        <v>0.06768</v>
-      </c>
-      <c r="Y115" s="58" t="n">
-        <v>0.000719999999999998</v>
+      <c r="X115" s="60" t="n">
+        <v>0.06816</v>
+      </c>
+      <c r="Y115" s="60" t="n">
+        <v>-0.00376000000000001</v>
       </c>
       <c r="AX115" s="11" t="s">
         <v>22</v>
@@ -15634,28 +15542,28 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="59" t="n">
+      <c r="B116" s="58" t="n">
         <v>34</v>
       </c>
-      <c r="C116" s="60" t="n">
+      <c r="C116" s="59" t="n">
         <f aca="false">(B116-0.5)/$B$242</f>
         <v>0.209375</v>
       </c>
-      <c r="D116" s="60" t="n">
+      <c r="D116" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C116)</f>
         <v>-0.808591770453963</v>
       </c>
-      <c r="E116" s="58" t="n">
+      <c r="E116" s="60" t="n">
         <v>-0.00264000000000002</v>
       </c>
-      <c r="F116" s="58" t="n">
+      <c r="F116" s="60" t="n">
         <v>-0.00216</v>
       </c>
-      <c r="X116" s="58" t="n">
+      <c r="X116" s="60" t="n">
         <v>0.10136</v>
       </c>
-      <c r="Y116" s="58" t="n">
-        <v>-0.00216</v>
+      <c r="Y116" s="60" t="n">
+        <v>-0.00496000000000001</v>
       </c>
       <c r="AX116" s="11" t="s">
         <v>22</v>
@@ -15695,27 +15603,27 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="59" t="n">
+      <c r="B117" s="58" t="n">
         <v>35</v>
       </c>
-      <c r="C117" s="60" t="n">
+      <c r="C117" s="59" t="n">
         <f aca="false">(B117-0.5)/$B$242</f>
         <v>0.215625</v>
       </c>
-      <c r="D117" s="60" t="n">
+      <c r="D117" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C117)</f>
         <v>-0.787054436881757</v>
       </c>
-      <c r="E117" s="58" t="n">
+      <c r="E117" s="60" t="n">
         <v>-0.00248</v>
       </c>
-      <c r="F117" s="58" t="n">
+      <c r="F117" s="60" t="n">
         <v>-0.00136</v>
       </c>
-      <c r="X117" s="58" t="n">
+      <c r="X117" s="60" t="n">
         <v>0.10136</v>
       </c>
-      <c r="Y117" s="58" t="n">
+      <c r="Y117" s="60" t="n">
         <v>-0.00216</v>
       </c>
       <c r="AX117" s="11" t="s">
@@ -15756,28 +15664,28 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="59" t="n">
+      <c r="B118" s="58" t="n">
         <v>36</v>
       </c>
-      <c r="C118" s="60" t="n">
+      <c r="C118" s="59" t="n">
         <f aca="false">(B118-0.5)/$B$242</f>
         <v>0.221875</v>
       </c>
-      <c r="D118" s="60" t="n">
+      <c r="D118" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C118)</f>
         <v>-0.765876147038185</v>
       </c>
-      <c r="E118" s="58" t="n">
+      <c r="E118" s="60" t="n">
         <v>-0.00216000000000001</v>
       </c>
-      <c r="F118" s="58" t="n">
+      <c r="F118" s="60" t="n">
         <v>-0.00136</v>
       </c>
-      <c r="X118" s="58" t="n">
-        <v>0.10128</v>
-      </c>
-      <c r="Y118" s="58" t="n">
-        <v>-0.00208</v>
+      <c r="X118" s="60" t="n">
+        <v>0.10136</v>
+      </c>
+      <c r="Y118" s="60" t="n">
+        <v>-0.00216</v>
       </c>
       <c r="AX118" s="11" t="s">
         <v>22</v>
@@ -15817,28 +15725,28 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="59" t="n">
+      <c r="B119" s="58" t="n">
         <v>37</v>
       </c>
-      <c r="C119" s="60" t="n">
+      <c r="C119" s="59" t="n">
         <f aca="false">(B119-0.5)/$B$242</f>
         <v>0.228125</v>
       </c>
-      <c r="D119" s="60" t="n">
+      <c r="D119" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C119)</f>
         <v>-0.74503592902231</v>
       </c>
-      <c r="E119" s="58" t="n">
+      <c r="E119" s="60" t="n">
         <v>-0.00216</v>
       </c>
-      <c r="F119" s="58" t="n">
+      <c r="F119" s="60" t="n">
         <v>0.00023999999999999</v>
       </c>
-      <c r="X119" s="58" t="n">
-        <v>0.10128</v>
-      </c>
-      <c r="Y119" s="58" t="n">
-        <v>-0.00208</v>
+      <c r="X119" s="60" t="n">
+        <v>0.10016</v>
+      </c>
+      <c r="Y119" s="60" t="n">
+        <v>-0.00136</v>
       </c>
       <c r="AX119" s="11" t="s">
         <v>22</v>
@@ -15878,28 +15786,28 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="59" t="n">
+      <c r="B120" s="58" t="n">
         <v>38</v>
       </c>
-      <c r="C120" s="60" t="n">
+      <c r="C120" s="59" t="n">
         <f aca="false">(B120-0.5)/$B$242</f>
         <v>0.234375</v>
       </c>
-      <c r="D120" s="60" t="n">
+      <c r="D120" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C120)</f>
         <v>-0.724514383492365</v>
       </c>
-      <c r="E120" s="58" t="n">
+      <c r="E120" s="60" t="n">
         <v>-0.00216</v>
       </c>
-      <c r="F120" s="58" t="n">
+      <c r="F120" s="60" t="n">
         <v>0.00023999999999999</v>
       </c>
-      <c r="X120" s="58" t="n">
-        <v>0.06816</v>
-      </c>
-      <c r="Y120" s="58" t="n">
-        <v>0.00023999999999999</v>
+      <c r="X120" s="60" t="n">
+        <v>0.10016</v>
+      </c>
+      <c r="Y120" s="60" t="n">
+        <v>-0.00136</v>
       </c>
       <c r="AX120" s="11" t="s">
         <v>22</v>
@@ -15939,27 +15847,27 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="59" t="n">
+      <c r="B121" s="58" t="n">
         <v>39</v>
       </c>
-      <c r="C121" s="60" t="n">
+      <c r="C121" s="59" t="n">
         <f aca="false">(B121-0.5)/$B$242</f>
         <v>0.240625</v>
       </c>
-      <c r="D121" s="60" t="n">
+      <c r="D121" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C121)</f>
         <v>-0.704293521520969</v>
       </c>
-      <c r="E121" s="58" t="n">
+      <c r="E121" s="60" t="n">
         <v>-0.00216</v>
       </c>
-      <c r="F121" s="58" t="n">
+      <c r="F121" s="60" t="n">
         <v>0.00023999999999999</v>
       </c>
-      <c r="X121" s="58" t="n">
+      <c r="X121" s="60" t="n">
         <v>0.06816</v>
       </c>
-      <c r="Y121" s="58" t="n">
+      <c r="Y121" s="60" t="n">
         <v>0.00023999999999999</v>
       </c>
       <c r="AX121" s="11" t="s">
@@ -16000,27 +15908,27 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="59" t="n">
+      <c r="B122" s="58" t="n">
         <v>40</v>
       </c>
-      <c r="C122" s="60" t="n">
+      <c r="C122" s="59" t="n">
         <f aca="false">(B122-0.5)/$B$242</f>
         <v>0.246875</v>
       </c>
-      <c r="D122" s="60" t="n">
+      <c r="D122" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C122)</f>
         <v>-0.684356622691522</v>
       </c>
-      <c r="E122" s="58" t="n">
+      <c r="E122" s="60" t="n">
         <v>-0.00216</v>
       </c>
-      <c r="F122" s="58" t="n">
+      <c r="F122" s="60" t="n">
         <v>0.00023999999999999</v>
       </c>
-      <c r="X122" s="58" t="n">
+      <c r="X122" s="60" t="n">
         <v>0.06816</v>
       </c>
-      <c r="Y122" s="58" t="n">
+      <c r="Y122" s="60" t="n">
         <v>0.00023999999999999</v>
       </c>
       <c r="AX122" s="11" t="s">
@@ -16061,27 +15969,27 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="59" t="n">
+      <c r="B123" s="58" t="n">
         <v>41</v>
       </c>
-      <c r="C123" s="60" t="n">
+      <c r="C123" s="59" t="n">
         <f aca="false">(B123-0.5)/$B$242</f>
         <v>0.253125</v>
       </c>
-      <c r="D123" s="60" t="n">
+      <c r="D123" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C123)</f>
         <v>-0.664688110452435</v>
       </c>
-      <c r="E123" s="58" t="n">
+      <c r="E123" s="60" t="n">
         <v>-0.00216</v>
       </c>
-      <c r="F123" s="58" t="n">
+      <c r="F123" s="60" t="n">
         <v>-0.00104000000000001</v>
       </c>
-      <c r="X123" s="58" t="n">
+      <c r="X123" s="60" t="n">
         <v>0.06816</v>
       </c>
-      <c r="Y123" s="58" t="n">
+      <c r="Y123" s="60" t="n">
         <v>0.00023999999999999</v>
       </c>
       <c r="AX123" s="11" t="s">
@@ -16122,28 +16030,28 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="59" t="n">
+      <c r="B124" s="58" t="n">
         <v>42</v>
       </c>
-      <c r="C124" s="60" t="n">
+      <c r="C124" s="59" t="n">
         <f aca="false">(B124-0.5)/$B$242</f>
         <v>0.259375</v>
       </c>
-      <c r="D124" s="60" t="n">
+      <c r="D124" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C124)</f>
         <v>-0.645273442247319</v>
       </c>
-      <c r="E124" s="58" t="n">
+      <c r="E124" s="60" t="n">
         <v>-0.00216</v>
       </c>
-      <c r="F124" s="58" t="n">
+      <c r="F124" s="60" t="n">
         <v>-0.00104000000000001</v>
       </c>
-      <c r="X124" s="58" t="n">
-        <v>0.10136</v>
-      </c>
-      <c r="Y124" s="58" t="n">
-        <v>-0.00216</v>
+      <c r="X124" s="60" t="n">
+        <v>0.06816</v>
+      </c>
+      <c r="Y124" s="60" t="n">
+        <v>0.00023999999999999</v>
       </c>
       <c r="AX124" s="11" t="s">
         <v>22</v>
@@ -16183,28 +16091,28 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="59" t="n">
+      <c r="B125" s="58" t="n">
         <v>43</v>
       </c>
-      <c r="C125" s="60" t="n">
+      <c r="C125" s="59" t="n">
         <f aca="false">(B125-0.5)/$B$242</f>
         <v>0.265625</v>
       </c>
-      <c r="D125" s="60" t="n">
+      <c r="D125" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C125)</f>
         <v>-0.626099012346421</v>
       </c>
-      <c r="E125" s="58" t="n">
+      <c r="E125" s="60" t="n">
         <v>-0.00216</v>
       </c>
-      <c r="F125" s="58" t="n">
+      <c r="F125" s="60" t="n">
         <v>-7.99999999999967E-005</v>
       </c>
-      <c r="X125" s="58" t="n">
-        <v>0.10136</v>
-      </c>
-      <c r="Y125" s="58" t="n">
-        <v>-0.00216</v>
+      <c r="X125" s="60" t="n">
+        <v>0.10024</v>
+      </c>
+      <c r="Y125" s="60" t="n">
+        <v>-0.00104000000000001</v>
       </c>
       <c r="AX125" s="11" t="s">
         <v>22</v>
@@ -16244,28 +16152,28 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="59" t="n">
+      <c r="B126" s="58" t="n">
         <v>44</v>
       </c>
-      <c r="C126" s="60" t="n">
+      <c r="C126" s="59" t="n">
         <f aca="false">(B126-0.5)/$B$242</f>
         <v>0.271875</v>
       </c>
-      <c r="D126" s="60" t="n">
+      <c r="D126" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C126)</f>
         <v>-0.607152065636956</v>
       </c>
-      <c r="E126" s="58" t="n">
+      <c r="E126" s="60" t="n">
         <v>-0.00208</v>
       </c>
-      <c r="F126" s="58" t="n">
+      <c r="F126" s="60" t="n">
         <v>-0.000560000000000005</v>
       </c>
-      <c r="X126" s="58" t="n">
-        <v>0.1012</v>
-      </c>
-      <c r="Y126" s="58" t="n">
-        <v>-0.00199999999999999</v>
+      <c r="X126" s="60" t="n">
+        <v>0.10024</v>
+      </c>
+      <c r="Y126" s="60" t="n">
+        <v>-0.00104000000000001</v>
       </c>
       <c r="AX126" s="11" t="s">
         <v>22</v>
@@ -16305,28 +16213,28 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="59" t="n">
+      <c r="B127" s="58" t="n">
         <v>45</v>
       </c>
-      <c r="C127" s="60" t="n">
+      <c r="C127" s="59" t="n">
         <f aca="false">(B127-0.5)/$B$242</f>
         <v>0.278125</v>
       </c>
-      <c r="D127" s="60" t="n">
+      <c r="D127" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C127)</f>
         <v>-0.588420620902714</v>
       </c>
-      <c r="E127" s="58" t="n">
+      <c r="E127" s="60" t="n">
         <v>-0.00208</v>
       </c>
-      <c r="F127" s="58" t="n">
+      <c r="F127" s="60" t="n">
         <v>0.000639999999999988</v>
       </c>
-      <c r="X127" s="58" t="n">
-        <v>0.1012</v>
-      </c>
-      <c r="Y127" s="58" t="n">
-        <v>-0.00199999999999999</v>
+      <c r="X127" s="60" t="n">
+        <v>0.09888</v>
+      </c>
+      <c r="Y127" s="60" t="n">
+        <v>-7.99999999999967E-005</v>
       </c>
       <c r="AX127" s="11" t="s">
         <v>22</v>
@@ -16366,28 +16274,28 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="59" t="n">
+      <c r="B128" s="58" t="n">
         <v>46</v>
       </c>
-      <c r="C128" s="60" t="n">
+      <c r="C128" s="59" t="n">
         <f aca="false">(B128-0.5)/$B$242</f>
         <v>0.284375</v>
       </c>
-      <c r="D128" s="60" t="n">
+      <c r="D128" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C128)</f>
         <v>-0.569893402348136</v>
       </c>
-      <c r="E128" s="58" t="n">
+      <c r="E128" s="60" t="n">
         <v>-0.00199999999999999</v>
       </c>
-      <c r="F128" s="58" t="n">
+      <c r="F128" s="60" t="n">
         <v>0.000719999999999998</v>
       </c>
-      <c r="X128" s="58" t="n">
-        <v>0.06816</v>
-      </c>
-      <c r="Y128" s="58" t="n">
-        <v>0.00023999999999999</v>
+      <c r="X128" s="60" t="n">
+        <v>0.09856</v>
+      </c>
+      <c r="Y128" s="60" t="n">
+        <v>-0.000560000000000005</v>
       </c>
       <c r="AX128" s="11" t="s">
         <v>22</v>
@@ -16427,28 +16335,28 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="59" t="n">
+      <c r="B129" s="58" t="n">
         <v>47</v>
       </c>
-      <c r="C129" s="60" t="n">
+      <c r="C129" s="59" t="n">
         <f aca="false">(B129-0.5)/$B$242</f>
         <v>0.290625</v>
       </c>
-      <c r="D129" s="60" t="n">
+      <c r="D129" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C129)</f>
         <v>-0.551559778308309</v>
       </c>
-      <c r="E129" s="58" t="n">
+      <c r="E129" s="60" t="n">
         <v>-0.00199999999999999</v>
       </c>
-      <c r="F129" s="58" t="n">
+      <c r="F129" s="60" t="n">
         <v>0.000719999999999998</v>
       </c>
-      <c r="X129" s="58" t="n">
-        <v>0.06816</v>
-      </c>
-      <c r="Y129" s="58" t="n">
-        <v>0.00023999999999999</v>
+      <c r="X129" s="60" t="n">
+        <v>0.06776</v>
+      </c>
+      <c r="Y129" s="60" t="n">
+        <v>0.000639999999999988</v>
       </c>
       <c r="AX129" s="11" t="s">
         <v>22</v>
@@ -16488,28 +16396,28 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="59" t="n">
+      <c r="B130" s="58" t="n">
         <v>48</v>
       </c>
-      <c r="C130" s="60" t="n">
+      <c r="C130" s="59" t="n">
         <f aca="false">(B130-0.5)/$B$242</f>
         <v>0.296875</v>
       </c>
-      <c r="D130" s="60" t="n">
+      <c r="D130" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C130)</f>
         <v>-0.53340970624128</v>
       </c>
-      <c r="E130" s="58" t="n">
+      <c r="E130" s="60" t="n">
         <v>-0.00136000000000001</v>
       </c>
-      <c r="F130" s="58" t="n">
+      <c r="F130" s="60" t="n">
         <v>-0.00216</v>
       </c>
-      <c r="X130" s="58" t="n">
-        <v>0.06816</v>
-      </c>
-      <c r="Y130" s="58" t="n">
-        <v>0.00023999999999999</v>
+      <c r="X130" s="60" t="n">
+        <v>0.06768</v>
+      </c>
+      <c r="Y130" s="60" t="n">
+        <v>0.000719999999999998</v>
       </c>
       <c r="AX130" s="11" t="s">
         <v>22</v>
@@ -16549,28 +16457,28 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="59" t="n">
+      <c r="B131" s="58" t="n">
         <v>49</v>
       </c>
-      <c r="C131" s="60" t="n">
+      <c r="C131" s="59" t="n">
         <f aca="false">(B131-0.5)/$B$242</f>
         <v>0.303125</v>
       </c>
-      <c r="D131" s="60" t="n">
+      <c r="D131" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C131)</f>
         <v>-0.515433683228519</v>
       </c>
-      <c r="E131" s="58" t="n">
+      <c r="E131" s="60" t="n">
         <v>-0.00136000000000001</v>
       </c>
-      <c r="F131" s="58" t="n">
+      <c r="F131" s="60" t="n">
         <v>-0.00216</v>
       </c>
-      <c r="X131" s="58" t="n">
-        <v>0.06816</v>
-      </c>
-      <c r="Y131" s="58" t="n">
-        <v>0.00023999999999999</v>
+      <c r="X131" s="60" t="n">
+        <v>0.06768</v>
+      </c>
+      <c r="Y131" s="60" t="n">
+        <v>0.000719999999999998</v>
       </c>
       <c r="AX131" s="11" t="s">
         <v>22</v>
@@ -16610,27 +16518,27 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="59" t="n">
+      <c r="B132" s="58" t="n">
         <v>50</v>
       </c>
-      <c r="C132" s="60" t="n">
+      <c r="C132" s="59" t="n">
         <f aca="false">(B132-0.5)/$B$242</f>
         <v>0.309375</v>
       </c>
-      <c r="D132" s="60" t="n">
+      <c r="D132" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C132)</f>
         <v>-0.497622701317951</v>
       </c>
-      <c r="E132" s="58" t="n">
+      <c r="E132" s="60" t="n">
         <v>-0.00136000000000001</v>
       </c>
-      <c r="F132" s="58" t="n">
+      <c r="F132" s="60" t="n">
         <v>-0.00208</v>
       </c>
-      <c r="X132" s="58" t="n">
+      <c r="X132" s="60" t="n">
         <v>0.10136</v>
       </c>
-      <c r="Y132" s="58" t="n">
+      <c r="Y132" s="60" t="n">
         <v>-0.00216</v>
       </c>
       <c r="AX132" s="11" t="s">
@@ -16671,28 +16579,28 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="59" t="n">
+      <c r="B133" s="58" t="n">
         <v>51</v>
       </c>
-      <c r="C133" s="60" t="n">
+      <c r="C133" s="59" t="n">
         <f aca="false">(B133-0.5)/$B$242</f>
         <v>0.315625</v>
       </c>
-      <c r="D133" s="60" t="n">
+      <c r="D133" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C133)</f>
         <v>-0.479968207135425</v>
       </c>
-      <c r="E133" s="58" t="n">
+      <c r="E133" s="60" t="n">
         <v>-0.00136000000000001</v>
       </c>
-      <c r="F133" s="58" t="n">
+      <c r="F133" s="60" t="n">
         <v>-0.00208</v>
       </c>
-      <c r="X133" s="58" t="n">
+      <c r="X133" s="60" t="n">
         <v>0.10136</v>
       </c>
-      <c r="Y133" s="58" t="n">
-        <v>0.00183999999999999</v>
+      <c r="Y133" s="60" t="n">
+        <v>-0.00216</v>
       </c>
       <c r="AX133" s="11" t="s">
         <v>22</v>
@@ -16732,28 +16640,28 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="59" t="n">
+      <c r="B134" s="58" t="n">
         <v>52</v>
       </c>
-      <c r="C134" s="60" t="n">
+      <c r="C134" s="59" t="n">
         <f aca="false">(B134-0.5)/$B$242</f>
         <v>0.321875</v>
       </c>
-      <c r="D134" s="60" t="n">
+      <c r="D134" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C134)</f>
         <v>-0.462462065267687</v>
       </c>
-      <c r="E134" s="58" t="n">
+      <c r="E134" s="60" t="n">
         <v>-0.00136000000000001</v>
       </c>
-      <c r="F134" s="58" t="n">
+      <c r="F134" s="60" t="n">
         <v>0.00023999999999999</v>
       </c>
-      <c r="X134" s="58" t="n">
-        <v>0.10136</v>
-      </c>
-      <c r="Y134" s="58" t="n">
-        <v>0.00183999999999999</v>
+      <c r="X134" s="60" t="n">
+        <v>0.10128</v>
+      </c>
+      <c r="Y134" s="60" t="n">
+        <v>-0.00208</v>
       </c>
       <c r="AX134" s="11" t="s">
         <v>22</v>
@@ -16793,28 +16701,28 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="59" t="n">
+      <c r="B135" s="58" t="n">
         <v>53</v>
       </c>
-      <c r="C135" s="60" t="n">
+      <c r="C135" s="59" t="n">
         <f aca="false">(B135-0.5)/$B$242</f>
         <v>0.328125</v>
       </c>
-      <c r="D135" s="60" t="n">
+      <c r="D135" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C135)</f>
         <v>-0.445096524985516</v>
       </c>
-      <c r="E135" s="58" t="n">
+      <c r="E135" s="60" t="n">
         <v>-0.00136000000000001</v>
       </c>
-      <c r="F135" s="58" t="n">
+      <c r="F135" s="60" t="n">
         <v>0.00023999999999999</v>
       </c>
-      <c r="X135" s="58" t="n">
-        <v>0.10016</v>
-      </c>
-      <c r="Y135" s="58" t="n">
-        <v>-0.000159999999999993</v>
+      <c r="X135" s="60" t="n">
+        <v>0.10128</v>
+      </c>
+      <c r="Y135" s="60" t="n">
+        <v>-0.00208</v>
       </c>
       <c r="AX135" s="11" t="s">
         <v>22</v>
@@ -16854,28 +16762,28 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="59" t="n">
+      <c r="B136" s="58" t="n">
         <v>54</v>
       </c>
-      <c r="C136" s="60" t="n">
+      <c r="C136" s="59" t="n">
         <f aca="false">(B136-0.5)/$B$242</f>
         <v>0.334375</v>
       </c>
-      <c r="D136" s="60" t="n">
+      <c r="D136" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C136)</f>
         <v>-0.427864189931375</v>
       </c>
-      <c r="E136" s="58" t="n">
+      <c r="E136" s="60" t="n">
         <v>-0.00136000000000001</v>
       </c>
-      <c r="F136" s="58" t="n">
+      <c r="F136" s="60" t="n">
         <v>0.00023999999999999</v>
       </c>
-      <c r="X136" s="58" t="n">
-        <v>0.10016</v>
-      </c>
-      <c r="Y136" s="58" t="n">
-        <v>-0.000159999999999993</v>
+      <c r="X136" s="60" t="n">
+        <v>0.06816</v>
+      </c>
+      <c r="Y136" s="60" t="n">
+        <v>0.00023999999999999</v>
       </c>
       <c r="AX136" s="11" t="s">
         <v>22</v>
@@ -16915,28 +16823,28 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="59" t="n">
+      <c r="B137" s="58" t="n">
         <v>55</v>
       </c>
-      <c r="C137" s="60" t="n">
+      <c r="C137" s="59" t="n">
         <f aca="false">(B137-0.5)/$B$242</f>
         <v>0.340625</v>
       </c>
-      <c r="D137" s="60" t="n">
+      <c r="D137" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C137)</f>
         <v>-0.410757990443504</v>
       </c>
-      <c r="E137" s="58" t="n">
+      <c r="E137" s="60" t="n">
         <v>-0.00136000000000001</v>
       </c>
-      <c r="F137" s="58" t="n">
+      <c r="F137" s="60" t="n">
         <v>0.00023999999999999</v>
       </c>
-      <c r="X137" s="58" t="n">
+      <c r="X137" s="60" t="n">
         <v>0.06816</v>
       </c>
-      <c r="Y137" s="58" t="n">
-        <v>0.00343999999999998</v>
+      <c r="Y137" s="60" t="n">
+        <v>0.00023999999999999</v>
       </c>
       <c r="AX137" s="11" t="s">
         <v>22</v>
@@ -16976,28 +16884,28 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="59" t="n">
+      <c r="B138" s="58" t="n">
         <v>56</v>
       </c>
-      <c r="C138" s="60" t="n">
+      <c r="C138" s="59" t="n">
         <f aca="false">(B138-0.5)/$B$242</f>
         <v>0.346875</v>
       </c>
-      <c r="D138" s="60" t="n">
+      <c r="D138" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C138)</f>
         <v>-0.393771158229159</v>
       </c>
-      <c r="E138" s="58" t="n">
+      <c r="E138" s="60" t="n">
         <v>-0.00136000000000001</v>
       </c>
-      <c r="F138" s="58" t="n">
+      <c r="F138" s="60" t="n">
         <v>-0.00216</v>
       </c>
-      <c r="X138" s="58" t="n">
+      <c r="X138" s="60" t="n">
         <v>0.06816</v>
       </c>
-      <c r="Y138" s="58" t="n">
-        <v>0.00343999999999998</v>
+      <c r="Y138" s="60" t="n">
+        <v>0.00023999999999999</v>
       </c>
       <c r="AX138" s="11" t="s">
         <v>22</v>
@@ -17037,28 +16945,28 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="59" t="n">
+      <c r="B139" s="58" t="n">
         <v>57</v>
       </c>
-      <c r="C139" s="60" t="n">
+      <c r="C139" s="59" t="n">
         <f aca="false">(B139-0.5)/$B$242</f>
         <v>0.353125</v>
       </c>
-      <c r="D139" s="60" t="n">
+      <c r="D139" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C139)</f>
         <v>-0.376897203134596</v>
       </c>
-      <c r="E139" s="58" t="n">
+      <c r="E139" s="60" t="n">
         <v>-0.00136000000000001</v>
       </c>
-      <c r="F139" s="58" t="n">
+      <c r="F139" s="60" t="n">
         <v>-0.00216</v>
       </c>
-      <c r="X139" s="58" t="n">
+      <c r="X139" s="60" t="n">
         <v>0.06816</v>
       </c>
-      <c r="Y139" s="58" t="n">
-        <v>0.00343999999999998</v>
+      <c r="Y139" s="60" t="n">
+        <v>0.00023999999999999</v>
       </c>
       <c r="AX139" s="11" t="s">
         <v>22</v>
@@ -17098,28 +17006,28 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="59" t="n">
+      <c r="B140" s="58" t="n">
         <v>58</v>
       </c>
-      <c r="C140" s="60" t="n">
+      <c r="C140" s="59" t="n">
         <f aca="false">(B140-0.5)/$B$242</f>
         <v>0.359375</v>
       </c>
-      <c r="D140" s="60" t="n">
+      <c r="D140" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C140)</f>
         <v>-0.360129891789569</v>
       </c>
-      <c r="E140" s="58" t="n">
+      <c r="E140" s="60" t="n">
         <v>-0.00136000000000001</v>
       </c>
-      <c r="F140" s="58" t="n">
+      <c r="F140" s="60" t="n">
         <v>-0.00199999999999999</v>
       </c>
-      <c r="X140" s="58" t="n">
-        <v>0.06816</v>
-      </c>
-      <c r="Y140" s="58" t="n">
-        <v>0.00343999999999998</v>
+      <c r="X140" s="60" t="n">
+        <v>0.10136</v>
+      </c>
+      <c r="Y140" s="60" t="n">
+        <v>-0.00216</v>
       </c>
       <c r="AX140" s="11" t="s">
         <v>22</v>
@@ -17159,28 +17067,28 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="59" t="n">
+      <c r="B141" s="58" t="n">
         <v>59</v>
       </c>
-      <c r="C141" s="60" t="n">
+      <c r="C141" s="59" t="n">
         <f aca="false">(B141-0.5)/$B$242</f>
         <v>0.365625</v>
       </c>
-      <c r="D141" s="60" t="n">
+      <c r="D141" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C141)</f>
         <v>-0.343463227930046</v>
       </c>
-      <c r="E141" s="58" t="n">
+      <c r="E141" s="60" t="n">
         <v>-0.00136000000000001</v>
       </c>
-      <c r="F141" s="58" t="n">
+      <c r="F141" s="60" t="n">
         <v>-0.00199999999999999</v>
       </c>
-      <c r="X141" s="58" t="n">
-        <v>0.10024</v>
-      </c>
-      <c r="Y141" s="58" t="n">
-        <v>-0.00264000000000002</v>
+      <c r="X141" s="60" t="n">
+        <v>0.10136</v>
+      </c>
+      <c r="Y141" s="60" t="n">
+        <v>-0.00216</v>
       </c>
       <c r="AX141" s="11" t="s">
         <v>22</v>
@@ -17220,28 +17128,28 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="59" t="n">
+      <c r="B142" s="58" t="n">
         <v>60</v>
       </c>
-      <c r="C142" s="60" t="n">
+      <c r="C142" s="59" t="n">
         <f aca="false">(B142-0.5)/$B$242</f>
         <v>0.371875</v>
       </c>
-      <c r="D142" s="60" t="n">
+      <c r="D142" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C142)</f>
         <v>-0.326891434225336</v>
       </c>
-      <c r="E142" s="58" t="n">
+      <c r="E142" s="60" t="n">
         <v>-0.00136</v>
       </c>
-      <c r="F142" s="58" t="n">
+      <c r="F142" s="60" t="n">
         <v>0.00023999999999999</v>
       </c>
-      <c r="X142" s="58" t="n">
-        <v>0.10024</v>
-      </c>
-      <c r="Y142" s="58" t="n">
-        <v>-0.00264000000000002</v>
+      <c r="X142" s="60" t="n">
+        <v>0.1012</v>
+      </c>
+      <c r="Y142" s="60" t="n">
+        <v>-0.00199999999999999</v>
       </c>
       <c r="AX142" s="11" t="s">
         <v>22</v>
@@ -17281,28 +17189,28 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="59" t="n">
+      <c r="B143" s="58" t="n">
         <v>61</v>
       </c>
-      <c r="C143" s="60" t="n">
+      <c r="C143" s="59" t="n">
         <f aca="false">(B143-0.5)/$B$242</f>
         <v>0.378125</v>
       </c>
-      <c r="D143" s="60" t="n">
+      <c r="D143" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C143)</f>
         <v>-0.310408935455323</v>
       </c>
-      <c r="E143" s="58" t="n">
+      <c r="E143" s="60" t="n">
         <v>-0.00136</v>
       </c>
-      <c r="F143" s="58" t="n">
+      <c r="F143" s="60" t="n">
         <v>0.00023999999999999</v>
       </c>
-      <c r="X143" s="58" t="n">
-        <v>0.09888</v>
-      </c>
-      <c r="Y143" s="58" t="n">
-        <v>-0.00327999999999999</v>
+      <c r="X143" s="60" t="n">
+        <v>0.1012</v>
+      </c>
+      <c r="Y143" s="60" t="n">
+        <v>-0.00199999999999999</v>
       </c>
       <c r="AX143" s="11" t="s">
         <v>22</v>
@@ -17342,28 +17250,28 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="59" t="n">
+      <c r="B144" s="58" t="n">
         <v>62</v>
       </c>
-      <c r="C144" s="60" t="n">
+      <c r="C144" s="59" t="n">
         <f aca="false">(B144-0.5)/$B$242</f>
         <v>0.384375</v>
       </c>
-      <c r="D144" s="60" t="n">
+      <c r="D144" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C144)</f>
         <v>-0.294010342900415</v>
       </c>
-      <c r="E144" s="58" t="n">
+      <c r="E144" s="60" t="n">
         <v>-0.00128</v>
       </c>
-      <c r="F144" s="58" t="n">
+      <c r="F144" s="60" t="n">
         <v>0.00023999999999999</v>
       </c>
-      <c r="X144" s="58" t="n">
-        <v>0.09856</v>
-      </c>
-      <c r="Y144" s="58" t="n">
-        <v>-0.00336</v>
+      <c r="X144" s="60" t="n">
+        <v>0.06816</v>
+      </c>
+      <c r="Y144" s="60" t="n">
+        <v>0.00023999999999999</v>
       </c>
       <c r="AX144" s="11" t="s">
         <v>22</v>
@@ -17403,28 +17311,28 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="59" t="n">
+      <c r="B145" s="58" t="n">
         <v>63</v>
       </c>
-      <c r="C145" s="60" t="n">
+      <c r="C145" s="59" t="n">
         <f aca="false">(B145-0.5)/$B$242</f>
         <v>0.390625</v>
       </c>
-      <c r="D145" s="60" t="n">
+      <c r="D145" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C145)</f>
         <v>-0.277690439821577</v>
       </c>
-      <c r="E145" s="58" t="n">
+      <c r="E145" s="60" t="n">
         <v>-0.00128</v>
       </c>
-      <c r="F145" s="58" t="n">
+      <c r="F145" s="60" t="n">
         <v>0.00023999999999999</v>
       </c>
-      <c r="X145" s="58" t="n">
-        <v>0.06776</v>
-      </c>
-      <c r="Y145" s="58" t="n">
-        <v>0.00183999999999999</v>
+      <c r="X145" s="60" t="n">
+        <v>0.06816</v>
+      </c>
+      <c r="Y145" s="60" t="n">
+        <v>0.00023999999999999</v>
       </c>
       <c r="AX145" s="11" t="s">
         <v>22</v>
@@ -17464,28 +17372,28 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="59" t="n">
+      <c r="B146" s="58" t="n">
         <v>64</v>
       </c>
-      <c r="C146" s="60" t="n">
+      <c r="C146" s="59" t="n">
         <f aca="false">(B146-0.5)/$B$242</f>
         <v>0.396875</v>
       </c>
-      <c r="D146" s="60" t="n">
+      <c r="D146" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C146)</f>
         <v>-0.26144416792067</v>
       </c>
-      <c r="E146" s="58" t="n">
+      <c r="E146" s="60" t="n">
         <v>-0.00104000000000001</v>
       </c>
-      <c r="F146" s="58" t="n">
+      <c r="F146" s="60" t="n">
         <v>-0.00216</v>
       </c>
-      <c r="X146" s="58" t="n">
-        <v>0.06768</v>
-      </c>
-      <c r="Y146" s="58" t="n">
-        <v>0.00192000000000001</v>
+      <c r="X146" s="60" t="n">
+        <v>0.06816</v>
+      </c>
+      <c r="Y146" s="60" t="n">
+        <v>0.00023999999999999</v>
       </c>
       <c r="AX146" s="11" t="s">
         <v>22</v>
@@ -17525,28 +17433,28 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="59" t="n">
+      <c r="B147" s="58" t="n">
         <v>65</v>
       </c>
-      <c r="C147" s="60" t="n">
+      <c r="C147" s="59" t="n">
         <f aca="false">(B147-0.5)/$B$242</f>
         <v>0.403125</v>
       </c>
-      <c r="D147" s="60" t="n">
+      <c r="D147" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C147)</f>
         <v>-0.245266614682556</v>
       </c>
-      <c r="E147" s="58" t="n">
+      <c r="E147" s="60" t="n">
         <v>-0.00104000000000001</v>
       </c>
-      <c r="F147" s="58" t="n">
+      <c r="F147" s="60" t="n">
         <v>0.00183999999999999</v>
       </c>
-      <c r="X147" s="58" t="n">
-        <v>0.06768</v>
-      </c>
-      <c r="Y147" s="58" t="n">
-        <v>0.00192000000000001</v>
+      <c r="X147" s="60" t="n">
+        <v>0.06816</v>
+      </c>
+      <c r="Y147" s="60" t="n">
+        <v>0.00023999999999999</v>
       </c>
       <c r="AX147" s="11" t="s">
         <v>22</v>
@@ -17586,28 +17494,28 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="59" t="n">
+      <c r="B148" s="58" t="n">
         <v>66</v>
       </c>
-      <c r="C148" s="60" t="n">
+      <c r="C148" s="59" t="n">
         <f aca="false">(B148-0.5)/$B$242</f>
         <v>0.409375</v>
       </c>
-      <c r="D148" s="60" t="n">
+      <c r="D148" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C148)</f>
         <v>-0.229153001510235</v>
       </c>
-      <c r="E148" s="58" t="n">
+      <c r="E148" s="60" t="n">
         <v>-0.000960000000000016</v>
       </c>
-      <c r="F148" s="58" t="n">
+      <c r="F148" s="60" t="n">
         <v>0.00183999999999999</v>
       </c>
-      <c r="X148" s="58" t="n">
+      <c r="X148" s="60" t="n">
         <v>0.10136</v>
       </c>
-      <c r="Y148" s="58" t="n">
-        <v>0.00183999999999999</v>
+      <c r="Y148" s="60" t="n">
+        <v>-0.00216</v>
       </c>
       <c r="AX148" s="11" t="s">
         <v>22</v>
@@ -17647,27 +17555,27 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="59" t="n">
+      <c r="B149" s="58" t="n">
         <v>67</v>
       </c>
-      <c r="C149" s="60" t="n">
+      <c r="C149" s="59" t="n">
         <f aca="false">(B149-0.5)/$B$242</f>
         <v>0.415625</v>
       </c>
-      <c r="D149" s="60" t="n">
+      <c r="D149" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C149)</f>
         <v>-0.213098672572898</v>
       </c>
-      <c r="E149" s="58" t="n">
+      <c r="E149" s="60" t="n">
         <v>-0.000560000000000005</v>
       </c>
-      <c r="F149" s="58" t="n">
+      <c r="F149" s="60" t="n">
         <v>-0.000159999999999993</v>
       </c>
-      <c r="X149" s="58" t="n">
+      <c r="X149" s="60" t="n">
         <v>0.10136</v>
       </c>
-      <c r="Y149" s="58" t="n">
+      <c r="Y149" s="60" t="n">
         <v>0.00183999999999999</v>
       </c>
       <c r="AX149" s="11" t="s">
@@ -17708,28 +17616,28 @@
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="59" t="n">
+      <c r="B150" s="58" t="n">
         <v>68</v>
       </c>
-      <c r="C150" s="60" t="n">
+      <c r="C150" s="59" t="n">
         <f aca="false">(B150-0.5)/$B$242</f>
         <v>0.421875</v>
       </c>
-      <c r="D150" s="60" t="n">
+      <c r="D150" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C150)</f>
         <v>-0.197099084294312</v>
       </c>
-      <c r="E150" s="58" t="n">
+      <c r="E150" s="60" t="n">
         <v>-0.000160000000000007</v>
       </c>
-      <c r="F150" s="58" t="n">
+      <c r="F150" s="60" t="n">
         <v>-0.000159999999999993</v>
       </c>
-      <c r="X150" s="58" t="n">
-        <v>0.10128</v>
-      </c>
-      <c r="Y150" s="58" t="n">
-        <v>0.00191999999999999</v>
+      <c r="X150" s="60" t="n">
+        <v>0.10136</v>
+      </c>
+      <c r="Y150" s="60" t="n">
+        <v>0.00183999999999999</v>
       </c>
       <c r="AX150" s="11" t="s">
         <v>22</v>
@@ -17769,28 +17677,28 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="59" t="n">
+      <c r="B151" s="58" t="n">
         <v>69</v>
       </c>
-      <c r="C151" s="60" t="n">
+      <c r="C151" s="59" t="n">
         <f aca="false">(B151-0.5)/$B$242</f>
         <v>0.428125</v>
       </c>
-      <c r="D151" s="60" t="n">
+      <c r="D151" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C151)</f>
         <v>-0.181149795415536</v>
       </c>
-      <c r="E151" s="58" t="n">
+      <c r="E151" s="60" t="n">
         <v>-0.000160000000000007</v>
       </c>
-      <c r="F151" s="58" t="n">
+      <c r="F151" s="60" t="n">
         <v>0.00343999999999998</v>
       </c>
-      <c r="X151" s="58" t="n">
-        <v>0.10128</v>
-      </c>
-      <c r="Y151" s="58" t="n">
-        <v>0.00191999999999999</v>
+      <c r="X151" s="60" t="n">
+        <v>0.10016</v>
+      </c>
+      <c r="Y151" s="60" t="n">
+        <v>-0.000159999999999993</v>
       </c>
       <c r="AX151" s="11" t="s">
         <v>22</v>
@@ -17830,28 +17738,28 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="59" t="n">
+      <c r="B152" s="58" t="n">
         <v>70</v>
       </c>
-      <c r="C152" s="60" t="n">
+      <c r="C152" s="59" t="n">
         <f aca="false">(B152-0.5)/$B$242</f>
         <v>0.434375</v>
       </c>
-      <c r="D152" s="60" t="n">
+      <c r="D152" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C152)</f>
         <v>-0.165246457571776</v>
       </c>
-      <c r="E152" s="58" t="n">
+      <c r="E152" s="60" t="n">
         <v>-0.000160000000000007</v>
       </c>
-      <c r="F152" s="58" t="n">
+      <c r="F152" s="60" t="n">
         <v>0.00343999999999998</v>
       </c>
-      <c r="X152" s="58" t="n">
-        <v>0.06816</v>
-      </c>
-      <c r="Y152" s="58" t="n">
-        <v>0.00343999999999998</v>
+      <c r="X152" s="60" t="n">
+        <v>0.10016</v>
+      </c>
+      <c r="Y152" s="60" t="n">
+        <v>-0.000159999999999993</v>
       </c>
       <c r="AX152" s="11" t="s">
         <v>22</v>
@@ -17891,27 +17799,27 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="59" t="n">
+      <c r="B153" s="58" t="n">
         <v>71</v>
       </c>
-      <c r="C153" s="60" t="n">
+      <c r="C153" s="59" t="n">
         <f aca="false">(B153-0.5)/$B$242</f>
         <v>0.440625</v>
       </c>
-      <c r="D153" s="60" t="n">
+      <c r="D153" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C153)</f>
         <v>-0.149384806328247</v>
       </c>
-      <c r="E153" s="58" t="n">
+      <c r="E153" s="60" t="n">
         <v>-0.000160000000000007</v>
       </c>
-      <c r="F153" s="58" t="n">
+      <c r="F153" s="60" t="n">
         <v>0.00343999999999998</v>
       </c>
-      <c r="X153" s="58" t="n">
+      <c r="X153" s="60" t="n">
         <v>0.06816</v>
       </c>
-      <c r="Y153" s="58" t="n">
+      <c r="Y153" s="60" t="n">
         <v>0.00343999999999998</v>
       </c>
       <c r="AX153" s="11" t="s">
@@ -17952,27 +17860,27 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="59" t="n">
+      <c r="B154" s="58" t="n">
         <v>72</v>
       </c>
-      <c r="C154" s="60" t="n">
+      <c r="C154" s="59" t="n">
         <f aca="false">(B154-0.5)/$B$242</f>
         <v>0.446875</v>
       </c>
-      <c r="D154" s="60" t="n">
+      <c r="D154" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C154)</f>
         <v>-0.133560652624314</v>
       </c>
-      <c r="E154" s="58" t="n">
+      <c r="E154" s="60" t="n">
         <v>-0.000160000000000007</v>
       </c>
-      <c r="F154" s="58" t="n">
+      <c r="F154" s="60" t="n">
         <v>0.00343999999999998</v>
       </c>
-      <c r="X154" s="58" t="n">
+      <c r="X154" s="60" t="n">
         <v>0.06816</v>
       </c>
-      <c r="Y154" s="58" t="n">
+      <c r="Y154" s="60" t="n">
         <v>0.00343999999999998</v>
       </c>
       <c r="AX154" s="11" t="s">
@@ -18013,27 +17921,27 @@
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="59" t="n">
+      <c r="B155" s="58" t="n">
         <v>73</v>
       </c>
-      <c r="C155" s="60" t="n">
+      <c r="C155" s="59" t="n">
         <f aca="false">(B155-0.5)/$B$242</f>
         <v>0.453125</v>
       </c>
-      <c r="D155" s="60" t="n">
+      <c r="D155" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C155)</f>
         <v>-0.117769874579095</v>
       </c>
-      <c r="E155" s="58" t="n">
+      <c r="E155" s="60" t="n">
         <v>-0.000160000000000007</v>
       </c>
-      <c r="F155" s="58" t="n">
+      <c r="F155" s="60" t="n">
         <v>-0.00264000000000002</v>
       </c>
-      <c r="X155" s="58" t="n">
+      <c r="X155" s="60" t="n">
         <v>0.06816</v>
       </c>
-      <c r="Y155" s="58" t="n">
+      <c r="Y155" s="60" t="n">
         <v>0.00343999999999998</v>
       </c>
       <c r="AX155" s="11" t="s">
@@ -18074,28 +17982,28 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="59" t="n">
+      <c r="B156" s="58" t="n">
         <v>74</v>
       </c>
-      <c r="C156" s="60" t="n">
+      <c r="C156" s="59" t="n">
         <f aca="false">(B156-0.5)/$B$242</f>
         <v>0.459375</v>
       </c>
-      <c r="D156" s="60" t="n">
+      <c r="D156" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C156)</f>
         <v>-0.102008409615026</v>
       </c>
-      <c r="E156" s="58" t="n">
+      <c r="E156" s="60" t="n">
         <v>-0.000160000000000007</v>
       </c>
-      <c r="F156" s="58" t="n">
+      <c r="F156" s="60" t="n">
         <v>-0.00264000000000002</v>
       </c>
-      <c r="X156" s="58" t="n">
-        <v>0.10136</v>
-      </c>
-      <c r="Y156" s="58" t="n">
-        <v>0.00183999999999999</v>
+      <c r="X156" s="60" t="n">
+        <v>0.06816</v>
+      </c>
+      <c r="Y156" s="60" t="n">
+        <v>0.00343999999999998</v>
       </c>
       <c r="AX156" s="11" t="s">
         <v>22</v>
@@ -18135,28 +18043,28 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="59" t="n">
+      <c r="B157" s="58" t="n">
         <v>75</v>
       </c>
-      <c r="C157" s="60" t="n">
+      <c r="C157" s="59" t="n">
         <f aca="false">(B157-0.5)/$B$242</f>
         <v>0.465625</v>
       </c>
-      <c r="D157" s="60" t="n">
+      <c r="D157" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C157)</f>
         <v>-0.0862722468588067</v>
       </c>
-      <c r="E157" s="58" t="n">
+      <c r="E157" s="60" t="n">
         <v>-0.000159999999999993</v>
       </c>
-      <c r="F157" s="58" t="n">
+      <c r="F157" s="60" t="n">
         <v>-0.00327999999999999</v>
       </c>
-      <c r="X157" s="58" t="n">
-        <v>0.10136</v>
-      </c>
-      <c r="Y157" s="58" t="n">
-        <v>0.00183999999999999</v>
+      <c r="X157" s="60" t="n">
+        <v>0.10024</v>
+      </c>
+      <c r="Y157" s="60" t="n">
+        <v>-0.00264000000000002</v>
       </c>
       <c r="AX157" s="11" t="s">
         <v>22</v>
@@ -18196,28 +18104,28 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="59" t="n">
+      <c r="B158" s="58" t="n">
         <v>76</v>
       </c>
-      <c r="C158" s="60" t="n">
+      <c r="C158" s="59" t="n">
         <f aca="false">(B158-0.5)/$B$242</f>
         <v>0.471875</v>
       </c>
-      <c r="D158" s="60" t="n">
+      <c r="D158" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C158)</f>
         <v>-0.0705574197816676</v>
       </c>
-      <c r="E158" s="58" t="n">
+      <c r="E158" s="60" t="n">
         <v>-0.000159999999999993</v>
       </c>
-      <c r="F158" s="58" t="n">
+      <c r="F158" s="60" t="n">
         <v>-0.00336</v>
       </c>
-      <c r="X158" s="58" t="n">
-        <v>0.1012</v>
-      </c>
-      <c r="Y158" s="58" t="n">
-        <v>0.0016</v>
+      <c r="X158" s="60" t="n">
+        <v>0.10024</v>
+      </c>
+      <c r="Y158" s="60" t="n">
+        <v>-0.00264000000000002</v>
       </c>
       <c r="AX158" s="11" t="s">
         <v>22</v>
@@ -18257,28 +18165,28 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="59" t="n">
+      <c r="B159" s="58" t="n">
         <v>77</v>
       </c>
-      <c r="C159" s="60" t="n">
+      <c r="C159" s="59" t="n">
         <f aca="false">(B159-0.5)/$B$242</f>
         <v>0.478125</v>
       </c>
-      <c r="D159" s="60" t="n">
+      <c r="D159" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C159)</f>
         <v>-0.0548599990429864</v>
       </c>
-      <c r="E159" s="58" t="n">
+      <c r="E159" s="60" t="n">
         <v>-8.00000000000106E-005</v>
       </c>
-      <c r="F159" s="58" t="n">
+      <c r="F159" s="60" t="n">
         <v>0.00183999999999999</v>
       </c>
-      <c r="X159" s="58" t="n">
-        <v>0.1012</v>
-      </c>
-      <c r="Y159" s="58" t="n">
-        <v>0.0016</v>
+      <c r="X159" s="60" t="n">
+        <v>0.09888</v>
+      </c>
+      <c r="Y159" s="60" t="n">
+        <v>-0.00327999999999999</v>
       </c>
       <c r="AX159" s="11" t="s">
         <v>22</v>
@@ -18318,28 +18226,28 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="59" t="n">
+      <c r="B160" s="58" t="n">
         <v>78</v>
       </c>
-      <c r="C160" s="60" t="n">
+      <c r="C160" s="59" t="n">
         <f aca="false">(B160-0.5)/$B$242</f>
         <v>0.484375</v>
       </c>
-      <c r="D160" s="60" t="n">
+      <c r="D160" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C160)</f>
         <v>-0.0391760855030976</v>
       </c>
-      <c r="E160" s="58" t="n">
+      <c r="E160" s="60" t="n">
         <v>-8.00000000000106E-005</v>
       </c>
-      <c r="F160" s="58" t="n">
+      <c r="F160" s="60" t="n">
         <v>0.00192000000000001</v>
       </c>
-      <c r="X160" s="58" t="n">
-        <v>0.06816</v>
-      </c>
-      <c r="Y160" s="58" t="n">
-        <v>0.00343999999999998</v>
+      <c r="X160" s="60" t="n">
+        <v>0.09856</v>
+      </c>
+      <c r="Y160" s="60" t="n">
+        <v>-0.00336</v>
       </c>
       <c r="AX160" s="11" t="s">
         <v>22</v>
@@ -18379,28 +18287,28 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="59" t="n">
+      <c r="B161" s="58" t="n">
         <v>79</v>
       </c>
-      <c r="C161" s="60" t="n">
+      <c r="C161" s="59" t="n">
         <f aca="false">(B161-0.5)/$B$242</f>
         <v>0.490625</v>
       </c>
-      <c r="D161" s="60" t="n">
+      <c r="D161" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C161)</f>
         <v>-0.0235018033725941</v>
       </c>
-      <c r="E161" s="58" t="n">
+      <c r="E161" s="60" t="n">
         <v>-7.99999999999967E-005</v>
       </c>
-      <c r="F161" s="58" t="n">
+      <c r="F161" s="60" t="n">
         <v>0.00192000000000001</v>
       </c>
-      <c r="X161" s="58" t="n">
-        <v>0.06816</v>
-      </c>
-      <c r="Y161" s="58" t="n">
-        <v>0.00343999999999998</v>
+      <c r="X161" s="60" t="n">
+        <v>0.06776</v>
+      </c>
+      <c r="Y161" s="60" t="n">
+        <v>0.00183999999999999</v>
       </c>
       <c r="AX161" s="11" t="s">
         <v>22</v>
@@ -18440,28 +18348,28 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="59" t="n">
+      <c r="B162" s="58" t="n">
         <v>80</v>
       </c>
-      <c r="C162" s="60" t="n">
+      <c r="C162" s="59" t="n">
         <f aca="false">(B162-0.5)/$B$242</f>
         <v>0.496875</v>
       </c>
-      <c r="D162" s="60" t="n">
+      <c r="D162" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C162)</f>
         <v>-0.00783329346660091</v>
       </c>
-      <c r="E162" s="58" t="n">
+      <c r="E162" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="F162" s="58" t="n">
+      <c r="F162" s="60" t="n">
         <v>0.00183999999999999</v>
       </c>
-      <c r="X162" s="58" t="n">
-        <v>0.06816</v>
-      </c>
-      <c r="Y162" s="58" t="n">
-        <v>0.00343999999999998</v>
+      <c r="X162" s="60" t="n">
+        <v>0.06768</v>
+      </c>
+      <c r="Y162" s="60" t="n">
+        <v>0.00192000000000001</v>
       </c>
       <c r="AX162" s="18" t="s">
         <v>22</v>
@@ -18505,25 +18413,25 @@
         <f aca="false">$B162+1</f>
         <v>81</v>
       </c>
-      <c r="C163" s="60" t="n">
+      <c r="C163" s="59" t="n">
         <f aca="false">(B163-0.5)/$B$242</f>
         <v>0.503125</v>
       </c>
-      <c r="D163" s="60" t="n">
+      <c r="D163" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C163)</f>
         <v>0.00783329346660105</v>
       </c>
-      <c r="E163" s="58" t="n">
+      <c r="E163" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="F163" s="58" t="n">
+      <c r="F163" s="60" t="n">
         <v>0.00183999999999999</v>
       </c>
-      <c r="X163" s="58" t="n">
-        <v>0.06816</v>
-      </c>
-      <c r="Y163" s="58" t="n">
-        <v>0.00343999999999998</v>
+      <c r="X163" s="60" t="n">
+        <v>0.06768</v>
+      </c>
+      <c r="Y163" s="60" t="n">
+        <v>0.00192000000000001</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18531,24 +18439,24 @@
         <f aca="false">$B163+1</f>
         <v>82</v>
       </c>
-      <c r="C164" s="60" t="n">
+      <c r="C164" s="59" t="n">
         <f aca="false">(B164-0.5)/$B$242</f>
         <v>0.509375</v>
       </c>
-      <c r="D164" s="60" t="n">
+      <c r="D164" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C164)</f>
         <v>0.0235018033725941</v>
       </c>
-      <c r="E164" s="58" t="n">
+      <c r="E164" s="60" t="n">
         <v>0.00023999999999999</v>
       </c>
-      <c r="F164" s="58" t="n">
+      <c r="F164" s="60" t="n">
         <v>0.00191999999999999</v>
       </c>
-      <c r="X164" s="58" t="n">
+      <c r="X164" s="60" t="n">
         <v>0.10136</v>
       </c>
-      <c r="Y164" s="58" t="n">
+      <c r="Y164" s="60" t="n">
         <v>0.00183999999999999</v>
       </c>
     </row>
@@ -18557,25 +18465,25 @@
         <f aca="false">$B164+1</f>
         <v>83</v>
       </c>
-      <c r="C165" s="60" t="n">
+      <c r="C165" s="59" t="n">
         <f aca="false">(B165-0.5)/$B$242</f>
         <v>0.515625</v>
       </c>
-      <c r="D165" s="60" t="n">
+      <c r="D165" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C165)</f>
         <v>0.0391760855030976</v>
       </c>
-      <c r="E165" s="58" t="n">
+      <c r="E165" s="60" t="n">
         <v>0.00023999999999999</v>
       </c>
-      <c r="F165" s="58" t="n">
+      <c r="F165" s="60" t="n">
         <v>0.00191999999999999</v>
       </c>
-      <c r="X165" s="58" t="n">
+      <c r="X165" s="60" t="n">
         <v>0.10136</v>
       </c>
-      <c r="Y165" s="58" t="n">
-        <v>0.00544</v>
+      <c r="Y165" s="60" t="n">
+        <v>0.00183999999999999</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18583,25 +18491,25 @@
         <f aca="false">$B165+1</f>
         <v>84</v>
       </c>
-      <c r="C166" s="60" t="n">
+      <c r="C166" s="59" t="n">
         <f aca="false">(B166-0.5)/$B$242</f>
         <v>0.521875</v>
       </c>
-      <c r="D166" s="60" t="n">
+      <c r="D166" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C166)</f>
         <v>0.0548599990429864</v>
       </c>
-      <c r="E166" s="58" t="n">
+      <c r="E166" s="60" t="n">
         <v>0.00023999999999999</v>
       </c>
-      <c r="F166" s="58" t="n">
+      <c r="F166" s="60" t="n">
         <v>0.00343999999999998</v>
       </c>
-      <c r="X166" s="58" t="n">
-        <v>0.10136</v>
-      </c>
-      <c r="Y166" s="58" t="n">
-        <v>0.00544</v>
+      <c r="X166" s="60" t="n">
+        <v>0.10128</v>
+      </c>
+      <c r="Y166" s="60" t="n">
+        <v>0.00191999999999999</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18609,25 +18517,25 @@
         <f aca="false">$B166+1</f>
         <v>85</v>
       </c>
-      <c r="C167" s="60" t="n">
+      <c r="C167" s="59" t="n">
         <f aca="false">(B167-0.5)/$B$242</f>
         <v>0.528125</v>
       </c>
-      <c r="D167" s="60" t="n">
+      <c r="D167" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C167)</f>
         <v>0.0705574197816675</v>
       </c>
-      <c r="E167" s="58" t="n">
+      <c r="E167" s="60" t="n">
         <v>0.00023999999999999</v>
       </c>
-      <c r="F167" s="58" t="n">
+      <c r="F167" s="60" t="n">
         <v>0.00343999999999998</v>
       </c>
-      <c r="X167" s="58" t="n">
-        <v>0.10016</v>
-      </c>
-      <c r="Y167" s="58" t="n">
-        <v>0.00464000000000001</v>
+      <c r="X167" s="60" t="n">
+        <v>0.10128</v>
+      </c>
+      <c r="Y167" s="60" t="n">
+        <v>0.00191999999999999</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18635,25 +18543,25 @@
         <f aca="false">$B167+1</f>
         <v>86</v>
       </c>
-      <c r="C168" s="60" t="n">
+      <c r="C168" s="59" t="n">
         <f aca="false">(B168-0.5)/$B$242</f>
         <v>0.534375</v>
       </c>
-      <c r="D168" s="60" t="n">
+      <c r="D168" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C168)</f>
         <v>0.0862722468588068</v>
       </c>
-      <c r="E168" s="58" t="n">
+      <c r="E168" s="60" t="n">
         <v>0.00023999999999999</v>
       </c>
-      <c r="F168" s="58" t="n">
+      <c r="F168" s="60" t="n">
         <v>0.00343999999999998</v>
       </c>
-      <c r="X168" s="58" t="n">
-        <v>0.10016</v>
-      </c>
-      <c r="Y168" s="58" t="n">
-        <v>0.00464000000000001</v>
+      <c r="X168" s="60" t="n">
+        <v>0.06816</v>
+      </c>
+      <c r="Y168" s="60" t="n">
+        <v>0.00343999999999998</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18661,25 +18569,25 @@
         <f aca="false">$B168+1</f>
         <v>87</v>
       </c>
-      <c r="C169" s="60" t="n">
+      <c r="C169" s="59" t="n">
         <f aca="false">(B169-0.5)/$B$242</f>
         <v>0.540625</v>
       </c>
-      <c r="D169" s="60" t="n">
+      <c r="D169" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C169)</f>
         <v>0.102008409615026</v>
       </c>
-      <c r="E169" s="58" t="n">
+      <c r="E169" s="60" t="n">
         <v>0.00023999999999999</v>
       </c>
-      <c r="F169" s="58" t="n">
+      <c r="F169" s="60" t="n">
         <v>0.00343999999999998</v>
       </c>
-      <c r="X169" s="58" t="n">
+      <c r="X169" s="60" t="n">
         <v>0.06816</v>
       </c>
-      <c r="Y169" s="58" t="n">
-        <v>-0.00136000000000001</v>
+      <c r="Y169" s="60" t="n">
+        <v>0.00343999999999998</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18687,25 +18595,25 @@
         <f aca="false">$B169+1</f>
         <v>88</v>
       </c>
-      <c r="C170" s="60" t="n">
+      <c r="C170" s="59" t="n">
         <f aca="false">(B170-0.5)/$B$242</f>
         <v>0.546875</v>
       </c>
-      <c r="D170" s="60" t="n">
+      <c r="D170" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C170)</f>
         <v>0.117769874579095</v>
       </c>
-      <c r="E170" s="58" t="n">
+      <c r="E170" s="60" t="n">
         <v>0.00023999999999999</v>
       </c>
-      <c r="F170" s="58" t="n">
+      <c r="F170" s="60" t="n">
         <v>0.00183999999999999</v>
       </c>
-      <c r="X170" s="58" t="n">
+      <c r="X170" s="60" t="n">
         <v>0.06816</v>
       </c>
-      <c r="Y170" s="58" t="n">
-        <v>-0.00136000000000001</v>
+      <c r="Y170" s="60" t="n">
+        <v>0.00343999999999998</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18713,25 +18621,25 @@
         <f aca="false">$B170+1</f>
         <v>89</v>
       </c>
-      <c r="C171" s="60" t="n">
+      <c r="C171" s="59" t="n">
         <f aca="false">(B171-0.5)/$B$242</f>
         <v>0.553125</v>
       </c>
-      <c r="D171" s="60" t="n">
+      <c r="D171" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C171)</f>
         <v>0.133560652624314</v>
       </c>
-      <c r="E171" s="58" t="n">
+      <c r="E171" s="60" t="n">
         <v>0.00023999999999999</v>
       </c>
-      <c r="F171" s="58" t="n">
+      <c r="F171" s="60" t="n">
         <v>0.00183999999999999</v>
       </c>
-      <c r="X171" s="58" t="n">
+      <c r="X171" s="60" t="n">
         <v>0.06816</v>
       </c>
-      <c r="Y171" s="58" t="n">
-        <v>-0.00136000000000001</v>
+      <c r="Y171" s="60" t="n">
+        <v>0.00343999999999998</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18739,25 +18647,25 @@
         <f aca="false">$B171+1</f>
         <v>90</v>
       </c>
-      <c r="C172" s="60" t="n">
+      <c r="C172" s="59" t="n">
         <f aca="false">(B172-0.5)/$B$242</f>
         <v>0.559375</v>
       </c>
-      <c r="D172" s="60" t="n">
+      <c r="D172" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C172)</f>
         <v>0.149384806328247</v>
       </c>
-      <c r="E172" s="58" t="n">
+      <c r="E172" s="60" t="n">
         <v>0.00023999999999999</v>
       </c>
-      <c r="F172" s="58" t="n">
+      <c r="F172" s="60" t="n">
         <v>0.0016</v>
       </c>
-      <c r="X172" s="58" t="n">
-        <v>0.06816</v>
-      </c>
-      <c r="Y172" s="58" t="n">
-        <v>-0.00136000000000001</v>
+      <c r="X172" s="60" t="n">
+        <v>0.10136</v>
+      </c>
+      <c r="Y172" s="60" t="n">
+        <v>0.00183999999999999</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18765,25 +18673,25 @@
         <f aca="false">$B172+1</f>
         <v>91</v>
       </c>
-      <c r="C173" s="60" t="n">
+      <c r="C173" s="59" t="n">
         <f aca="false">(B173-0.5)/$B$242</f>
         <v>0.565625</v>
       </c>
-      <c r="D173" s="60" t="n">
+      <c r="D173" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C173)</f>
         <v>0.165246457571777</v>
       </c>
-      <c r="E173" s="58" t="n">
+      <c r="E173" s="60" t="n">
         <v>0.00023999999999999</v>
       </c>
-      <c r="F173" s="58" t="n">
+      <c r="F173" s="60" t="n">
         <v>0.0016</v>
       </c>
-      <c r="X173" s="58" t="n">
-        <v>0.10024</v>
-      </c>
-      <c r="Y173" s="58" t="n">
-        <v>0.00655999999999998</v>
+      <c r="X173" s="60" t="n">
+        <v>0.10136</v>
+      </c>
+      <c r="Y173" s="60" t="n">
+        <v>0.00183999999999999</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18791,25 +18699,25 @@
         <f aca="false">$B173+1</f>
         <v>92</v>
       </c>
-      <c r="C174" s="60" t="n">
+      <c r="C174" s="59" t="n">
         <f aca="false">(B174-0.5)/$B$242</f>
         <v>0.571875</v>
       </c>
-      <c r="D174" s="60" t="n">
+      <c r="D174" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C174)</f>
         <v>0.181149795415536</v>
       </c>
-      <c r="E174" s="58" t="n">
+      <c r="E174" s="60" t="n">
         <v>0.00023999999999999</v>
       </c>
-      <c r="F174" s="58" t="n">
+      <c r="F174" s="60" t="n">
         <v>0.00343999999999998</v>
       </c>
-      <c r="X174" s="58" t="n">
-        <v>0.10024</v>
-      </c>
-      <c r="Y174" s="58" t="n">
-        <v>0.00655999999999998</v>
+      <c r="X174" s="60" t="n">
+        <v>0.1012</v>
+      </c>
+      <c r="Y174" s="60" t="n">
+        <v>0.0016</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18817,25 +18725,25 @@
         <f aca="false">$B174+1</f>
         <v>93</v>
       </c>
-      <c r="C175" s="60" t="n">
+      <c r="C175" s="59" t="n">
         <f aca="false">(B175-0.5)/$B$242</f>
         <v>0.578125</v>
       </c>
-      <c r="D175" s="60" t="n">
+      <c r="D175" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C175)</f>
         <v>0.197099084294312</v>
       </c>
-      <c r="E175" s="58" t="n">
+      <c r="E175" s="60" t="n">
         <v>0.00023999999999999</v>
       </c>
-      <c r="F175" s="58" t="n">
+      <c r="F175" s="60" t="n">
         <v>0.00343999999999998</v>
       </c>
-      <c r="X175" s="58" t="n">
-        <v>0.09888</v>
-      </c>
-      <c r="Y175" s="58" t="n">
-        <v>0.00472000000000002</v>
+      <c r="X175" s="60" t="n">
+        <v>0.1012</v>
+      </c>
+      <c r="Y175" s="60" t="n">
+        <v>0.0016</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18843,25 +18751,25 @@
         <f aca="false">$B175+1</f>
         <v>94</v>
       </c>
-      <c r="C176" s="60" t="n">
+      <c r="C176" s="59" t="n">
         <f aca="false">(B176-0.5)/$B$242</f>
         <v>0.584375</v>
       </c>
-      <c r="D176" s="60" t="n">
+      <c r="D176" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C176)</f>
         <v>0.213098672572898</v>
       </c>
-      <c r="E176" s="58" t="n">
+      <c r="E176" s="60" t="n">
         <v>0.000639999999999988</v>
       </c>
-      <c r="F176" s="58" t="n">
+      <c r="F176" s="60" t="n">
         <v>0.00343999999999998</v>
       </c>
-      <c r="X176" s="58" t="n">
-        <v>0.09856</v>
-      </c>
-      <c r="Y176" s="58" t="n">
-        <v>0.00504</v>
+      <c r="X176" s="60" t="n">
+        <v>0.06816</v>
+      </c>
+      <c r="Y176" s="60" t="n">
+        <v>0.00343999999999998</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18869,25 +18777,25 @@
         <f aca="false">$B176+1</f>
         <v>95</v>
       </c>
-      <c r="C177" s="60" t="n">
+      <c r="C177" s="59" t="n">
         <f aca="false">(B177-0.5)/$B$242</f>
         <v>0.590625</v>
       </c>
-      <c r="D177" s="60" t="n">
+      <c r="D177" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C177)</f>
         <v>0.229153001510235</v>
       </c>
-      <c r="E177" s="58" t="n">
+      <c r="E177" s="60" t="n">
         <v>0.000640000000000002</v>
       </c>
-      <c r="F177" s="58" t="n">
+      <c r="F177" s="60" t="n">
         <v>0.00343999999999998</v>
       </c>
-      <c r="X177" s="58" t="n">
-        <v>0.06776</v>
-      </c>
-      <c r="Y177" s="58" t="n">
-        <v>-0.000960000000000016</v>
+      <c r="X177" s="60" t="n">
+        <v>0.06816</v>
+      </c>
+      <c r="Y177" s="60" t="n">
+        <v>0.00343999999999998</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18895,25 +18803,25 @@
         <f aca="false">$B177+1</f>
         <v>96</v>
       </c>
-      <c r="C178" s="60" t="n">
+      <c r="C178" s="59" t="n">
         <f aca="false">(B178-0.5)/$B$242</f>
         <v>0.596875</v>
       </c>
-      <c r="D178" s="60" t="n">
+      <c r="D178" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C178)</f>
         <v>0.245266614682556</v>
       </c>
-      <c r="E178" s="58" t="n">
+      <c r="E178" s="60" t="n">
         <v>0.000640000000000002</v>
       </c>
-      <c r="F178" s="58" t="n">
+      <c r="F178" s="60" t="n">
         <v>0.00183999999999999</v>
       </c>
-      <c r="X178" s="58" t="n">
-        <v>0.06768</v>
-      </c>
-      <c r="Y178" s="58" t="n">
-        <v>-0.00128</v>
+      <c r="X178" s="60" t="n">
+        <v>0.06816</v>
+      </c>
+      <c r="Y178" s="60" t="n">
+        <v>0.00343999999999998</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18921,25 +18829,25 @@
         <f aca="false">$B178+1</f>
         <v>97</v>
       </c>
-      <c r="C179" s="60" t="n">
+      <c r="C179" s="59" t="n">
         <f aca="false">(B179-0.5)/$B$242</f>
         <v>0.603125</v>
       </c>
-      <c r="D179" s="60" t="n">
+      <c r="D179" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C179)</f>
         <v>0.26144416792067</v>
       </c>
-      <c r="E179" s="58" t="n">
+      <c r="E179" s="60" t="n">
         <v>0.000719999999999998</v>
       </c>
-      <c r="F179" s="58" t="n">
+      <c r="F179" s="60" t="n">
         <v>0.00544</v>
       </c>
-      <c r="X179" s="58" t="n">
-        <v>0.06768</v>
-      </c>
-      <c r="Y179" s="58" t="n">
-        <v>-0.00128</v>
+      <c r="X179" s="60" t="n">
+        <v>0.06816</v>
+      </c>
+      <c r="Y179" s="60" t="n">
+        <v>0.00343999999999998</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18947,25 +18855,25 @@
         <f aca="false">$B179+1</f>
         <v>98</v>
       </c>
-      <c r="C180" s="60" t="n">
+      <c r="C180" s="59" t="n">
         <f aca="false">(B180-0.5)/$B$242</f>
         <v>0.609375</v>
       </c>
-      <c r="D180" s="60" t="n">
+      <c r="D180" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C180)</f>
         <v>0.277690439821577</v>
       </c>
-      <c r="E180" s="58" t="n">
+      <c r="E180" s="60" t="n">
         <v>0.000719999999999998</v>
       </c>
-      <c r="F180" s="58" t="n">
+      <c r="F180" s="60" t="n">
         <v>0.00544</v>
       </c>
-      <c r="X180" s="58" t="n">
+      <c r="X180" s="60" t="n">
         <v>0.10136</v>
       </c>
-      <c r="Y180" s="58" t="n">
-        <v>0.00544</v>
+      <c r="Y180" s="60" t="n">
+        <v>0.00183999999999999</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18973,24 +18881,24 @@
         <f aca="false">$B180+1</f>
         <v>99</v>
       </c>
-      <c r="C181" s="60" t="n">
+      <c r="C181" s="59" t="n">
         <f aca="false">(B181-0.5)/$B$242</f>
         <v>0.615625</v>
       </c>
-      <c r="D181" s="60" t="n">
+      <c r="D181" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C181)</f>
         <v>0.294010342900415</v>
       </c>
-      <c r="E181" s="58" t="n">
+      <c r="E181" s="60" t="n">
         <v>0.000959999999999975</v>
       </c>
-      <c r="F181" s="58" t="n">
+      <c r="F181" s="60" t="n">
         <v>0.00464000000000001</v>
       </c>
-      <c r="X181" s="58" t="n">
+      <c r="X181" s="60" t="n">
         <v>0.10136</v>
       </c>
-      <c r="Y181" s="58" t="n">
+      <c r="Y181" s="60" t="n">
         <v>0.00544</v>
       </c>
     </row>
@@ -18999,25 +18907,25 @@
         <f aca="false">$B181+1</f>
         <v>100</v>
       </c>
-      <c r="C182" s="60" t="n">
+      <c r="C182" s="59" t="n">
         <f aca="false">(B182-0.5)/$B$242</f>
         <v>0.621875</v>
       </c>
-      <c r="D182" s="60" t="n">
+      <c r="D182" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C182)</f>
         <v>0.310408935455323</v>
       </c>
-      <c r="E182" s="58" t="n">
+      <c r="E182" s="60" t="n">
         <v>0.000959999999999975</v>
       </c>
-      <c r="F182" s="58" t="n">
+      <c r="F182" s="60" t="n">
         <v>0.00464000000000001</v>
       </c>
-      <c r="X182" s="58" t="n">
-        <v>0.10128</v>
-      </c>
-      <c r="Y182" s="58" t="n">
-        <v>0.00512</v>
+      <c r="X182" s="60" t="n">
+        <v>0.10136</v>
+      </c>
+      <c r="Y182" s="60" t="n">
+        <v>0.00544</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19025,25 +18933,25 @@
         <f aca="false">$B182+1</f>
         <v>101</v>
       </c>
-      <c r="C183" s="60" t="n">
+      <c r="C183" s="59" t="n">
         <f aca="false">(B183-0.5)/$B$242</f>
         <v>0.628125</v>
       </c>
-      <c r="D183" s="60" t="n">
+      <c r="D183" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C183)</f>
         <v>0.326891434225336</v>
       </c>
-      <c r="E183" s="58" t="n">
+      <c r="E183" s="60" t="n">
         <v>0.00104</v>
       </c>
-      <c r="F183" s="58" t="n">
+      <c r="F183" s="60" t="n">
         <v>-0.00136000000000001</v>
       </c>
-      <c r="X183" s="58" t="n">
-        <v>0.10128</v>
-      </c>
-      <c r="Y183" s="58" t="n">
-        <v>0.00512</v>
+      <c r="X183" s="60" t="n">
+        <v>0.10016</v>
+      </c>
+      <c r="Y183" s="60" t="n">
+        <v>0.00464000000000001</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19051,25 +18959,25 @@
         <f aca="false">$B183+1</f>
         <v>102</v>
       </c>
-      <c r="C184" s="60" t="n">
+      <c r="C184" s="59" t="n">
         <f aca="false">(B184-0.5)/$B$242</f>
         <v>0.634375</v>
       </c>
-      <c r="D184" s="60" t="n">
+      <c r="D184" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C184)</f>
         <v>0.343463227930046</v>
       </c>
-      <c r="E184" s="58" t="n">
+      <c r="E184" s="60" t="n">
         <v>0.00112000000000001</v>
       </c>
-      <c r="F184" s="58" t="n">
+      <c r="F184" s="60" t="n">
         <v>-0.00136000000000001</v>
       </c>
-      <c r="X184" s="58" t="n">
-        <v>0.06816</v>
-      </c>
-      <c r="Y184" s="58" t="n">
-        <v>-0.00136000000000001</v>
+      <c r="X184" s="60" t="n">
+        <v>0.10016</v>
+      </c>
+      <c r="Y184" s="60" t="n">
+        <v>0.00464000000000001</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19077,24 +18985,24 @@
         <f aca="false">$B184+1</f>
         <v>103</v>
       </c>
-      <c r="C185" s="60" t="n">
+      <c r="C185" s="59" t="n">
         <f aca="false">(B185-0.5)/$B$242</f>
         <v>0.640625</v>
       </c>
-      <c r="D185" s="60" t="n">
+      <c r="D185" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C185)</f>
         <v>0.360129891789569</v>
       </c>
-      <c r="E185" s="58" t="n">
+      <c r="E185" s="60" t="n">
         <v>0.00144</v>
       </c>
-      <c r="F185" s="58" t="n">
+      <c r="F185" s="60" t="n">
         <v>-0.00136000000000001</v>
       </c>
-      <c r="X185" s="58" t="n">
+      <c r="X185" s="60" t="n">
         <v>0.06816</v>
       </c>
-      <c r="Y185" s="58" t="n">
+      <c r="Y185" s="60" t="n">
         <v>-0.00136000000000001</v>
       </c>
     </row>
@@ -19103,24 +19011,24 @@
         <f aca="false">$B185+1</f>
         <v>104</v>
       </c>
-      <c r="C186" s="60" t="n">
+      <c r="C186" s="59" t="n">
         <f aca="false">(B186-0.5)/$B$242</f>
         <v>0.646875</v>
       </c>
-      <c r="D186" s="60" t="n">
+      <c r="D186" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C186)</f>
         <v>0.376897203134596</v>
       </c>
-      <c r="E186" s="58" t="n">
+      <c r="E186" s="60" t="n">
         <v>0.00144</v>
       </c>
-      <c r="F186" s="58" t="n">
+      <c r="F186" s="60" t="n">
         <v>-0.00136000000000001</v>
       </c>
-      <c r="X186" s="58" t="n">
+      <c r="X186" s="60" t="n">
         <v>0.06816</v>
       </c>
-      <c r="Y186" s="58" t="n">
+      <c r="Y186" s="60" t="n">
         <v>-0.00136000000000001</v>
       </c>
     </row>
@@ -19129,24 +19037,24 @@
         <f aca="false">$B186+1</f>
         <v>105</v>
       </c>
-      <c r="C187" s="60" t="n">
+      <c r="C187" s="59" t="n">
         <f aca="false">(B187-0.5)/$B$242</f>
         <v>0.653125</v>
       </c>
-      <c r="D187" s="60" t="n">
+      <c r="D187" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C187)</f>
         <v>0.393771158229159</v>
       </c>
-      <c r="E187" s="58" t="n">
+      <c r="E187" s="60" t="n">
         <v>0.00144</v>
       </c>
-      <c r="F187" s="58" t="n">
+      <c r="F187" s="60" t="n">
         <v>0.00655999999999998</v>
       </c>
-      <c r="X187" s="58" t="n">
+      <c r="X187" s="60" t="n">
         <v>0.06816</v>
       </c>
-      <c r="Y187" s="58" t="n">
+      <c r="Y187" s="60" t="n">
         <v>-0.00136000000000001</v>
       </c>
     </row>
@@ -19155,25 +19063,25 @@
         <f aca="false">$B187+1</f>
         <v>106</v>
       </c>
-      <c r="C188" s="60" t="n">
+      <c r="C188" s="59" t="n">
         <f aca="false">(B188-0.5)/$B$242</f>
         <v>0.659375</v>
       </c>
-      <c r="D188" s="60" t="n">
+      <c r="D188" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C188)</f>
         <v>0.410757990443504</v>
       </c>
-      <c r="E188" s="58" t="n">
+      <c r="E188" s="60" t="n">
         <v>0.00144</v>
       </c>
-      <c r="F188" s="58" t="n">
+      <c r="F188" s="60" t="n">
         <v>0.00655999999999998</v>
       </c>
-      <c r="X188" s="58" t="n">
-        <v>0.10136</v>
-      </c>
-      <c r="Y188" s="58" t="n">
-        <v>0.00544</v>
+      <c r="X188" s="60" t="n">
+        <v>0.06816</v>
+      </c>
+      <c r="Y188" s="60" t="n">
+        <v>-0.00136000000000001</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19181,25 +19089,25 @@
         <f aca="false">$B188+1</f>
         <v>107</v>
       </c>
-      <c r="C189" s="60" t="n">
+      <c r="C189" s="59" t="n">
         <f aca="false">(B189-0.5)/$B$242</f>
         <v>0.665625</v>
       </c>
-      <c r="D189" s="60" t="n">
+      <c r="D189" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C189)</f>
         <v>0.427864189931375</v>
       </c>
-      <c r="E189" s="58" t="n">
+      <c r="E189" s="60" t="n">
         <v>0.00144</v>
       </c>
-      <c r="F189" s="58" t="n">
+      <c r="F189" s="60" t="n">
         <v>0.00472000000000002</v>
       </c>
-      <c r="X189" s="58" t="n">
-        <v>0.10136</v>
-      </c>
-      <c r="Y189" s="58" t="n">
-        <v>0.00544</v>
+      <c r="X189" s="60" t="n">
+        <v>0.10024</v>
+      </c>
+      <c r="Y189" s="60" t="n">
+        <v>0.00655999999999998</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19207,25 +19115,25 @@
         <f aca="false">$B189+1</f>
         <v>108</v>
       </c>
-      <c r="C190" s="60" t="n">
+      <c r="C190" s="59" t="n">
         <f aca="false">(B190-0.5)/$B$242</f>
         <v>0.671875</v>
       </c>
-      <c r="D190" s="60" t="n">
+      <c r="D190" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C190)</f>
         <v>0.445096524985516</v>
       </c>
-      <c r="E190" s="58" t="n">
+      <c r="E190" s="60" t="n">
         <v>0.00144</v>
       </c>
-      <c r="F190" s="58" t="n">
+      <c r="F190" s="60" t="n">
         <v>0.00504</v>
       </c>
-      <c r="X190" s="58" t="n">
-        <v>0.1012</v>
-      </c>
-      <c r="Y190" s="58" t="n">
-        <v>0.00520000000000001</v>
+      <c r="X190" s="60" t="n">
+        <v>0.10024</v>
+      </c>
+      <c r="Y190" s="60" t="n">
+        <v>0.00655999999999998</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19233,25 +19141,25 @@
         <f aca="false">$B190+1</f>
         <v>109</v>
       </c>
-      <c r="C191" s="60" t="n">
+      <c r="C191" s="59" t="n">
         <f aca="false">(B191-0.5)/$B$242</f>
         <v>0.678125</v>
       </c>
-      <c r="D191" s="60" t="n">
+      <c r="D191" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C191)</f>
         <v>0.462462065267687</v>
       </c>
-      <c r="E191" s="58" t="n">
+      <c r="E191" s="60" t="n">
         <v>0.00144</v>
       </c>
-      <c r="F191" s="58" t="n">
+      <c r="F191" s="60" t="n">
         <v>-0.000960000000000016</v>
       </c>
-      <c r="X191" s="58" t="n">
-        <v>0.1012</v>
-      </c>
-      <c r="Y191" s="58" t="n">
-        <v>0.00520000000000001</v>
+      <c r="X191" s="60" t="n">
+        <v>0.09888</v>
+      </c>
+      <c r="Y191" s="60" t="n">
+        <v>0.00472000000000002</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19259,25 +19167,25 @@
         <f aca="false">$B191+1</f>
         <v>110</v>
       </c>
-      <c r="C192" s="60" t="n">
+      <c r="C192" s="59" t="n">
         <f aca="false">(B192-0.5)/$B$242</f>
         <v>0.684375</v>
       </c>
-      <c r="D192" s="60" t="n">
+      <c r="D192" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C192)</f>
         <v>0.479968207135425</v>
       </c>
-      <c r="E192" s="58" t="n">
+      <c r="E192" s="60" t="n">
         <v>0.00144</v>
       </c>
-      <c r="F192" s="58" t="n">
+      <c r="F192" s="60" t="n">
         <v>-0.00128</v>
       </c>
-      <c r="X192" s="58" t="n">
-        <v>0.06816</v>
-      </c>
-      <c r="Y192" s="58" t="n">
-        <v>-0.00136000000000001</v>
+      <c r="X192" s="60" t="n">
+        <v>0.09856</v>
+      </c>
+      <c r="Y192" s="60" t="n">
+        <v>0.00504</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19285,25 +19193,25 @@
         <f aca="false">$B192+1</f>
         <v>111</v>
       </c>
-      <c r="C193" s="60" t="n">
+      <c r="C193" s="59" t="n">
         <f aca="false">(B193-0.5)/$B$242</f>
         <v>0.690625</v>
       </c>
-      <c r="D193" s="60" t="n">
+      <c r="D193" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C193)</f>
         <v>0.497622701317952</v>
       </c>
-      <c r="E193" s="58" t="n">
+      <c r="E193" s="60" t="n">
         <v>0.00144</v>
       </c>
-      <c r="F193" s="58" t="n">
+      <c r="F193" s="60" t="n">
         <v>-0.00128</v>
       </c>
-      <c r="X193" s="58" t="n">
-        <v>0.06816</v>
-      </c>
-      <c r="Y193" s="58" t="n">
-        <v>-0.00136000000000001</v>
+      <c r="X193" s="60" t="n">
+        <v>0.06776</v>
+      </c>
+      <c r="Y193" s="60" t="n">
+        <v>-0.000960000000000016</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19311,25 +19219,25 @@
         <f aca="false">$B193+1</f>
         <v>112</v>
       </c>
-      <c r="C194" s="60" t="n">
+      <c r="C194" s="59" t="n">
         <f aca="false">(B194-0.5)/$B$242</f>
         <v>0.696875</v>
       </c>
-      <c r="D194" s="60" t="n">
+      <c r="D194" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C194)</f>
         <v>0.515433683228519</v>
       </c>
-      <c r="E194" s="58" t="n">
+      <c r="E194" s="60" t="n">
         <v>0.00144</v>
       </c>
-      <c r="F194" s="58" t="n">
+      <c r="F194" s="60" t="n">
         <v>0.00544</v>
       </c>
-      <c r="X194" s="58" t="n">
-        <v>0.06816</v>
-      </c>
-      <c r="Y194" s="58" t="n">
-        <v>-0.00136000000000001</v>
+      <c r="X194" s="60" t="n">
+        <v>0.06768</v>
+      </c>
+      <c r="Y194" s="60" t="n">
+        <v>-0.00128</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19337,25 +19245,25 @@
         <f aca="false">$B194+1</f>
         <v>113</v>
       </c>
-      <c r="C195" s="60" t="n">
+      <c r="C195" s="59" t="n">
         <f aca="false">(B195-0.5)/$B$242</f>
         <v>0.703125</v>
       </c>
-      <c r="D195" s="60" t="n">
+      <c r="D195" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C195)</f>
         <v>0.53340970624128</v>
       </c>
-      <c r="E195" s="58" t="n">
+      <c r="E195" s="60" t="n">
         <v>0.00144</v>
       </c>
-      <c r="F195" s="58" t="n">
+      <c r="F195" s="60" t="n">
         <v>0.00544</v>
       </c>
-      <c r="X195" s="58" t="n">
-        <v>0.06816</v>
-      </c>
-      <c r="Y195" s="58" t="n">
-        <v>-0.00136000000000001</v>
+      <c r="X195" s="60" t="n">
+        <v>0.06768</v>
+      </c>
+      <c r="Y195" s="60" t="n">
+        <v>-0.00128</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19363,24 +19271,24 @@
         <f aca="false">$B195+1</f>
         <v>114</v>
       </c>
-      <c r="C196" s="60" t="n">
+      <c r="C196" s="59" t="n">
         <f aca="false">(B196-0.5)/$B$242</f>
         <v>0.709375</v>
       </c>
-      <c r="D196" s="60" t="n">
+      <c r="D196" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C196)</f>
         <v>0.551559778308309</v>
       </c>
-      <c r="E196" s="58" t="n">
+      <c r="E196" s="60" t="n">
         <v>0.00144</v>
       </c>
-      <c r="F196" s="58" t="n">
+      <c r="F196" s="60" t="n">
         <v>0.00512</v>
       </c>
-      <c r="X196" s="58" t="n">
+      <c r="X196" s="60" t="n">
         <v>0.10136</v>
       </c>
-      <c r="Y196" s="58" t="n">
+      <c r="Y196" s="60" t="n">
         <v>0.00544</v>
       </c>
     </row>
@@ -19389,25 +19297,25 @@
         <f aca="false">$B196+1</f>
         <v>115</v>
       </c>
-      <c r="C197" s="60" t="n">
+      <c r="C197" s="59" t="n">
         <f aca="false">(B197-0.5)/$B$242</f>
         <v>0.715625</v>
       </c>
-      <c r="D197" s="60" t="n">
+      <c r="D197" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C197)</f>
         <v>0.569893402348136</v>
       </c>
-      <c r="E197" s="58" t="n">
+      <c r="E197" s="60" t="n">
         <v>0.0016</v>
       </c>
-      <c r="F197" s="58" t="n">
+      <c r="F197" s="60" t="n">
         <v>0.00512</v>
       </c>
-      <c r="X197" s="58" t="n">
+      <c r="X197" s="60" t="n">
         <v>0.10136</v>
       </c>
-      <c r="Y197" s="58" t="n">
-        <v>-0.000160000000000007</v>
+      <c r="Y197" s="60" t="n">
+        <v>0.00544</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19415,25 +19323,25 @@
         <f aca="false">$B197+1</f>
         <v>116</v>
       </c>
-      <c r="C198" s="60" t="n">
+      <c r="C198" s="59" t="n">
         <f aca="false">(B198-0.5)/$B$242</f>
         <v>0.721875</v>
       </c>
-      <c r="D198" s="60" t="n">
+      <c r="D198" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C198)</f>
         <v>0.588420620902715</v>
       </c>
-      <c r="E198" s="58" t="n">
+      <c r="E198" s="60" t="n">
         <v>0.0016</v>
       </c>
-      <c r="F198" s="58" t="n">
+      <c r="F198" s="60" t="n">
         <v>-0.00136000000000001</v>
       </c>
-      <c r="X198" s="58" t="n">
-        <v>0.10136</v>
-      </c>
-      <c r="Y198" s="58" t="n">
-        <v>-0.000160000000000007</v>
+      <c r="X198" s="60" t="n">
+        <v>0.10128</v>
+      </c>
+      <c r="Y198" s="60" t="n">
+        <v>0.00512</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19441,25 +19349,25 @@
         <f aca="false">$B198+1</f>
         <v>117</v>
       </c>
-      <c r="C199" s="60" t="n">
+      <c r="C199" s="59" t="n">
         <f aca="false">(B199-0.5)/$B$242</f>
         <v>0.728125</v>
       </c>
-      <c r="D199" s="60" t="n">
+      <c r="D199" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C199)</f>
         <v>0.607152065636956</v>
       </c>
-      <c r="E199" s="58" t="n">
+      <c r="E199" s="60" t="n">
         <v>0.00183999999999999</v>
       </c>
-      <c r="F199" s="58" t="n">
+      <c r="F199" s="60" t="n">
         <v>-0.00136000000000001</v>
       </c>
-      <c r="X199" s="58" t="n">
-        <v>0.10016</v>
-      </c>
-      <c r="Y199" s="58" t="n">
-        <v>0.000640000000000002</v>
+      <c r="X199" s="60" t="n">
+        <v>0.10128</v>
+      </c>
+      <c r="Y199" s="60" t="n">
+        <v>0.00512</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19467,25 +19375,25 @@
         <f aca="false">$B199+1</f>
         <v>118</v>
       </c>
-      <c r="C200" s="60" t="n">
+      <c r="C200" s="59" t="n">
         <f aca="false">(B200-0.5)/$B$242</f>
         <v>0.734375</v>
       </c>
-      <c r="D200" s="60" t="n">
+      <c r="D200" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C200)</f>
         <v>0.626099012346421</v>
       </c>
-      <c r="E200" s="58" t="n">
+      <c r="E200" s="60" t="n">
         <v>0.00183999999999999</v>
       </c>
-      <c r="F200" s="58" t="n">
+      <c r="F200" s="60" t="n">
         <v>-0.00136000000000001</v>
       </c>
-      <c r="X200" s="58" t="n">
-        <v>0.10016</v>
-      </c>
-      <c r="Y200" s="58" t="n">
-        <v>0.000640000000000002</v>
+      <c r="X200" s="60" t="n">
+        <v>0.06816</v>
+      </c>
+      <c r="Y200" s="60" t="n">
+        <v>-0.00136000000000001</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19493,25 +19401,25 @@
         <f aca="false">$B200+1</f>
         <v>119</v>
       </c>
-      <c r="C201" s="60" t="n">
+      <c r="C201" s="59" t="n">
         <f aca="false">(B201-0.5)/$B$242</f>
         <v>0.740625</v>
       </c>
-      <c r="D201" s="60" t="n">
+      <c r="D201" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C201)</f>
         <v>0.645273442247319</v>
       </c>
-      <c r="E201" s="58" t="n">
+      <c r="E201" s="60" t="n">
         <v>0.00183999999999999</v>
       </c>
-      <c r="F201" s="58" t="n">
+      <c r="F201" s="60" t="n">
         <v>-0.00136000000000001</v>
       </c>
-      <c r="X201" s="58" t="n">
+      <c r="X201" s="60" t="n">
         <v>0.06816</v>
       </c>
-      <c r="Y201" s="58" t="n">
-        <v>0.00144</v>
+      <c r="Y201" s="60" t="n">
+        <v>-0.00136000000000001</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19519,25 +19427,25 @@
         <f aca="false">$B201+1</f>
         <v>120</v>
       </c>
-      <c r="C202" s="60" t="n">
+      <c r="C202" s="59" t="n">
         <f aca="false">(B202-0.5)/$B$242</f>
         <v>0.746875</v>
       </c>
-      <c r="D202" s="60" t="n">
+      <c r="D202" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C202)</f>
         <v>0.664688110452434</v>
       </c>
-      <c r="E202" s="58" t="n">
+      <c r="E202" s="60" t="n">
         <v>0.00183999999999999</v>
       </c>
-      <c r="F202" s="58" t="n">
+      <c r="F202" s="60" t="n">
         <v>0.00544</v>
       </c>
-      <c r="X202" s="58" t="n">
+      <c r="X202" s="60" t="n">
         <v>0.06816</v>
       </c>
-      <c r="Y202" s="58" t="n">
-        <v>0.00144</v>
+      <c r="Y202" s="60" t="n">
+        <v>-0.00136000000000001</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19545,25 +19453,25 @@
         <f aca="false">$B202+1</f>
         <v>121</v>
       </c>
-      <c r="C203" s="60" t="n">
+      <c r="C203" s="59" t="n">
         <f aca="false">(B203-0.5)/$B$242</f>
         <v>0.753125</v>
       </c>
-      <c r="D203" s="60" t="n">
+      <c r="D203" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C203)</f>
         <v>0.684356622691522</v>
       </c>
-      <c r="E203" s="58" t="n">
+      <c r="E203" s="60" t="n">
         <v>0.00183999999999999</v>
       </c>
-      <c r="F203" s="58" t="n">
+      <c r="F203" s="60" t="n">
         <v>0.00544</v>
       </c>
-      <c r="X203" s="58" t="n">
+      <c r="X203" s="60" t="n">
         <v>0.06816</v>
       </c>
-      <c r="Y203" s="58" t="n">
-        <v>0.00144</v>
+      <c r="Y203" s="60" t="n">
+        <v>-0.00136000000000001</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19571,25 +19479,25 @@
         <f aca="false">$B203+1</f>
         <v>122</v>
       </c>
-      <c r="C204" s="60" t="n">
+      <c r="C204" s="59" t="n">
         <f aca="false">(B204-0.5)/$B$242</f>
         <v>0.759375</v>
       </c>
-      <c r="D204" s="60" t="n">
+      <c r="D204" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C204)</f>
         <v>0.704293521520969</v>
       </c>
-      <c r="E204" s="58" t="n">
+      <c r="E204" s="60" t="n">
         <v>0.00183999999999999</v>
       </c>
-      <c r="F204" s="58" t="n">
+      <c r="F204" s="60" t="n">
         <v>0.00520000000000001</v>
       </c>
-      <c r="X204" s="58" t="n">
-        <v>0.06816</v>
-      </c>
-      <c r="Y204" s="58" t="n">
-        <v>0.00144</v>
+      <c r="X204" s="60" t="n">
+        <v>0.10136</v>
+      </c>
+      <c r="Y204" s="60" t="n">
+        <v>0.00544</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19597,25 +19505,25 @@
         <f aca="false">$B204+1</f>
         <v>123</v>
       </c>
-      <c r="C205" s="60" t="n">
+      <c r="C205" s="59" t="n">
         <f aca="false">(B205-0.5)/$B$242</f>
         <v>0.765625</v>
       </c>
-      <c r="D205" s="60" t="n">
+      <c r="D205" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C205)</f>
         <v>0.724514383492365</v>
       </c>
-      <c r="E205" s="58" t="n">
+      <c r="E205" s="60" t="n">
         <v>0.00183999999999999</v>
       </c>
-      <c r="F205" s="58" t="n">
+      <c r="F205" s="60" t="n">
         <v>0.00520000000000001</v>
       </c>
-      <c r="X205" s="58" t="n">
-        <v>0.10024</v>
-      </c>
-      <c r="Y205" s="58" t="n">
-        <v>0.000959999999999975</v>
+      <c r="X205" s="60" t="n">
+        <v>0.10136</v>
+      </c>
+      <c r="Y205" s="60" t="n">
+        <v>0.00544</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19623,25 +19531,25 @@
         <f aca="false">$B205+1</f>
         <v>124</v>
       </c>
-      <c r="C206" s="60" t="n">
+      <c r="C206" s="59" t="n">
         <f aca="false">(B206-0.5)/$B$242</f>
         <v>0.771875</v>
       </c>
-      <c r="D206" s="60" t="n">
+      <c r="D206" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C206)</f>
         <v>0.74503592902231</v>
       </c>
-      <c r="E206" s="58" t="n">
+      <c r="E206" s="60" t="n">
         <v>0.00183999999999999</v>
       </c>
-      <c r="F206" s="58" t="n">
+      <c r="F206" s="60" t="n">
         <v>-0.00136000000000001</v>
       </c>
-      <c r="X206" s="58" t="n">
-        <v>0.10024</v>
-      </c>
-      <c r="Y206" s="58" t="n">
-        <v>0.000959999999999975</v>
+      <c r="X206" s="60" t="n">
+        <v>0.1012</v>
+      </c>
+      <c r="Y206" s="60" t="n">
+        <v>0.00520000000000001</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19649,25 +19557,25 @@
         <f aca="false">$B206+1</f>
         <v>125</v>
       </c>
-      <c r="C207" s="60" t="n">
+      <c r="C207" s="59" t="n">
         <f aca="false">(B207-0.5)/$B$242</f>
         <v>0.778125</v>
       </c>
-      <c r="D207" s="60" t="n">
+      <c r="D207" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C207)</f>
         <v>0.765876147038185</v>
       </c>
-      <c r="E207" s="58" t="n">
+      <c r="E207" s="60" t="n">
         <v>0.00183999999999999</v>
       </c>
-      <c r="F207" s="58" t="n">
+      <c r="F207" s="60" t="n">
         <v>-0.00136000000000001</v>
       </c>
-      <c r="X207" s="58" t="n">
-        <v>0.09888</v>
-      </c>
-      <c r="Y207" s="58" t="n">
-        <v>0.00112000000000001</v>
+      <c r="X207" s="60" t="n">
+        <v>0.1012</v>
+      </c>
+      <c r="Y207" s="60" t="n">
+        <v>0.00520000000000001</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19675,25 +19583,25 @@
         <f aca="false">$B207+1</f>
         <v>126</v>
       </c>
-      <c r="C208" s="60" t="n">
+      <c r="C208" s="59" t="n">
         <f aca="false">(B208-0.5)/$B$242</f>
         <v>0.784375</v>
       </c>
-      <c r="D208" s="60" t="n">
+      <c r="D208" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C208)</f>
         <v>0.787054436881757</v>
       </c>
-      <c r="E208" s="58" t="n">
+      <c r="E208" s="60" t="n">
         <v>0.00191999999999999</v>
       </c>
-      <c r="F208" s="58" t="n">
+      <c r="F208" s="60" t="n">
         <v>-0.00136000000000001</v>
       </c>
-      <c r="X208" s="58" t="n">
-        <v>0.09856</v>
-      </c>
-      <c r="Y208" s="58" t="n">
-        <v>0.00104</v>
+      <c r="X208" s="60" t="n">
+        <v>0.06816</v>
+      </c>
+      <c r="Y208" s="60" t="n">
+        <v>-0.00136000000000001</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19701,25 +19609,25 @@
         <f aca="false">$B208+1</f>
         <v>127</v>
       </c>
-      <c r="C209" s="60" t="n">
+      <c r="C209" s="59" t="n">
         <f aca="false">(B209-0.5)/$B$242</f>
         <v>0.790625</v>
       </c>
-      <c r="D209" s="60" t="n">
+      <c r="D209" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C209)</f>
         <v>0.808591770453963</v>
       </c>
-      <c r="E209" s="58" t="n">
+      <c r="E209" s="60" t="n">
         <v>0.00191999999999999</v>
       </c>
-      <c r="F209" s="58" t="n">
+      <c r="F209" s="60" t="n">
         <v>-0.00136000000000001</v>
       </c>
-      <c r="X209" s="58" t="n">
-        <v>0.06776</v>
-      </c>
-      <c r="Y209" s="58" t="n">
-        <v>0.00183999999999999</v>
+      <c r="X209" s="60" t="n">
+        <v>0.06816</v>
+      </c>
+      <c r="Y209" s="60" t="n">
+        <v>-0.00136000000000001</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19727,25 +19635,25 @@
         <f aca="false">$B209+1</f>
         <v>128</v>
       </c>
-      <c r="C210" s="60" t="n">
+      <c r="C210" s="59" t="n">
         <f aca="false">(B210-0.5)/$B$242</f>
         <v>0.796875</v>
       </c>
-      <c r="D210" s="60" t="n">
+      <c r="D210" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C210)</f>
         <v>0.830510878205399</v>
       </c>
-      <c r="E210" s="58" t="n">
+      <c r="E210" s="60" t="n">
         <v>0.00192000000000001</v>
       </c>
-      <c r="F210" s="58" t="n">
+      <c r="F210" s="60" t="n">
         <v>0.00544</v>
       </c>
-      <c r="X210" s="58" t="n">
-        <v>0.06768</v>
-      </c>
-      <c r="Y210" s="58" t="n">
-        <v>0.00192000000000001</v>
+      <c r="X210" s="60" t="n">
+        <v>0.06816</v>
+      </c>
+      <c r="Y210" s="60" t="n">
+        <v>-0.00136000000000001</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19753,25 +19661,25 @@
         <f aca="false">$B210+1</f>
         <v>129</v>
       </c>
-      <c r="C211" s="60" t="n">
+      <c r="C211" s="59" t="n">
         <f aca="false">(B211-0.5)/$B$242</f>
         <v>0.803125</v>
       </c>
-      <c r="D211" s="60" t="n">
+      <c r="D211" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C211)</f>
         <v>0.852836463351083</v>
       </c>
-      <c r="E211" s="58" t="n">
+      <c r="E211" s="60" t="n">
         <v>0.00192000000000001</v>
       </c>
-      <c r="F211" s="58" t="n">
+      <c r="F211" s="60" t="n">
         <v>-0.000160000000000007</v>
       </c>
-      <c r="X211" s="58" t="n">
-        <v>0.06768</v>
-      </c>
-      <c r="Y211" s="58" t="n">
-        <v>0.00192000000000001</v>
+      <c r="X211" s="60" t="n">
+        <v>0.06816</v>
+      </c>
+      <c r="Y211" s="60" t="n">
+        <v>-0.00136000000000001</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19779,25 +19687,25 @@
         <f aca="false">$B211+1</f>
         <v>130</v>
       </c>
-      <c r="C212" s="60" t="n">
+      <c r="C212" s="59" t="n">
         <f aca="false">(B212-0.5)/$B$242</f>
         <v>0.809375</v>
       </c>
-      <c r="D212" s="60" t="n">
+      <c r="D212" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C212)</f>
         <v>0.875595449658795</v>
       </c>
-      <c r="E212" s="58" t="n">
+      <c r="E212" s="60" t="n">
         <v>0.00192000000000001</v>
       </c>
-      <c r="F212" s="58" t="n">
+      <c r="F212" s="60" t="n">
         <v>-0.000160000000000007</v>
       </c>
-      <c r="X212" s="58" t="n">
+      <c r="X212" s="60" t="n">
         <v>0.10136</v>
       </c>
-      <c r="Y212" s="58" t="n">
-        <v>-0.000160000000000007</v>
+      <c r="Y212" s="60" t="n">
+        <v>0.00544</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19805,24 +19713,24 @@
         <f aca="false">$B212+1</f>
         <v>131</v>
       </c>
-      <c r="C213" s="60" t="n">
+      <c r="C213" s="59" t="n">
         <f aca="false">(B213-0.5)/$B$242</f>
         <v>0.815625</v>
       </c>
-      <c r="D213" s="60" t="n">
+      <c r="D213" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C213)</f>
         <v>0.898817269385917</v>
       </c>
-      <c r="E213" s="58" t="n">
+      <c r="E213" s="60" t="n">
         <v>0.00192000000000001</v>
       </c>
-      <c r="F213" s="58" t="n">
+      <c r="F213" s="60" t="n">
         <v>0.000640000000000002</v>
       </c>
-      <c r="X213" s="58" t="n">
+      <c r="X213" s="60" t="n">
         <v>0.10136</v>
       </c>
-      <c r="Y213" s="58" t="n">
+      <c r="Y213" s="60" t="n">
         <v>-0.000160000000000007</v>
       </c>
     </row>
@@ -19831,25 +19739,25 @@
         <f aca="false">$B213+1</f>
         <v>132</v>
       </c>
-      <c r="C214" s="60" t="n">
+      <c r="C214" s="59" t="n">
         <f aca="false">(B214-0.5)/$B$242</f>
         <v>0.821875</v>
       </c>
-      <c r="D214" s="60" t="n">
+      <c r="D214" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C214)</f>
         <v>0.922534199498215</v>
       </c>
-      <c r="E214" s="58" t="n">
+      <c r="E214" s="60" t="n">
         <v>0.00343999999999998</v>
       </c>
-      <c r="F214" s="58" t="n">
+      <c r="F214" s="60" t="n">
         <v>0.000640000000000002</v>
       </c>
-      <c r="X214" s="58" t="n">
-        <v>0.10128</v>
-      </c>
-      <c r="Y214" s="58" t="n">
-        <v>-8.00000000000106E-005</v>
+      <c r="X214" s="60" t="n">
+        <v>0.10136</v>
+      </c>
+      <c r="Y214" s="60" t="n">
+        <v>-0.000160000000000007</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19857,25 +19765,25 @@
         <f aca="false">$B214+1</f>
         <v>133</v>
       </c>
-      <c r="C215" s="60" t="n">
+      <c r="C215" s="59" t="n">
         <f aca="false">(B215-0.5)/$B$242</f>
         <v>0.828125</v>
       </c>
-      <c r="D215" s="60" t="n">
+      <c r="D215" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C215)</f>
         <v>0.946781756301045</v>
       </c>
-      <c r="E215" s="58" t="n">
+      <c r="E215" s="60" t="n">
         <v>0.00343999999999998</v>
       </c>
-      <c r="F215" s="58" t="n">
+      <c r="F215" s="60" t="n">
         <v>0.00144</v>
       </c>
-      <c r="X215" s="58" t="n">
-        <v>0.10128</v>
-      </c>
-      <c r="Y215" s="58" t="n">
-        <v>-8.00000000000106E-005</v>
+      <c r="X215" s="60" t="n">
+        <v>0.10016</v>
+      </c>
+      <c r="Y215" s="60" t="n">
+        <v>0.000640000000000002</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19883,25 +19791,25 @@
         <f aca="false">$B215+1</f>
         <v>134</v>
       </c>
-      <c r="C216" s="60" t="n">
+      <c r="C216" s="59" t="n">
         <f aca="false">(B216-0.5)/$B$242</f>
         <v>0.834375</v>
       </c>
-      <c r="D216" s="60" t="n">
+      <c r="D216" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C216)</f>
         <v>0.971599161193188</v>
       </c>
-      <c r="E216" s="58" t="n">
+      <c r="E216" s="60" t="n">
         <v>0.00343999999999998</v>
       </c>
-      <c r="F216" s="58" t="n">
+      <c r="F216" s="60" t="n">
         <v>0.00144</v>
       </c>
-      <c r="X216" s="58" t="n">
-        <v>0.06816</v>
-      </c>
-      <c r="Y216" s="58" t="n">
-        <v>0.00144</v>
+      <c r="X216" s="60" t="n">
+        <v>0.10016</v>
+      </c>
+      <c r="Y216" s="60" t="n">
+        <v>0.000640000000000002</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19909,24 +19817,24 @@
         <f aca="false">$B216+1</f>
         <v>135</v>
       </c>
-      <c r="C217" s="60" t="n">
+      <c r="C217" s="59" t="n">
         <f aca="false">(B217-0.5)/$B$242</f>
         <v>0.840625</v>
       </c>
-      <c r="D217" s="60" t="n">
+      <c r="D217" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C217)</f>
         <v>0.997029893615006</v>
       </c>
-      <c r="E217" s="58" t="n">
+      <c r="E217" s="60" t="n">
         <v>0.00343999999999998</v>
       </c>
-      <c r="F217" s="58" t="n">
+      <c r="F217" s="60" t="n">
         <v>0.00144</v>
       </c>
-      <c r="X217" s="58" t="n">
+      <c r="X217" s="60" t="n">
         <v>0.06816</v>
       </c>
-      <c r="Y217" s="58" t="n">
+      <c r="Y217" s="60" t="n">
         <v>0.00144</v>
       </c>
     </row>
@@ -19935,24 +19843,24 @@
         <f aca="false">$B217+1</f>
         <v>136</v>
       </c>
-      <c r="C218" s="60" t="n">
+      <c r="C218" s="59" t="n">
         <f aca="false">(B218-0.5)/$B$242</f>
         <v>0.846875</v>
       </c>
-      <c r="D218" s="60" t="n">
+      <c r="D218" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C218)</f>
         <v>1.02312235168363</v>
       </c>
-      <c r="E218" s="58" t="n">
+      <c r="E218" s="60" t="n">
         <v>0.00343999999999998</v>
       </c>
-      <c r="F218" s="58" t="n">
+      <c r="F218" s="60" t="n">
         <v>0.00144</v>
       </c>
-      <c r="X218" s="58" t="n">
+      <c r="X218" s="60" t="n">
         <v>0.06816</v>
       </c>
-      <c r="Y218" s="58" t="n">
+      <c r="Y218" s="60" t="n">
         <v>0.00144</v>
       </c>
     </row>
@@ -19961,24 +19869,24 @@
         <f aca="false">$B218+1</f>
         <v>137</v>
       </c>
-      <c r="C219" s="60" t="n">
+      <c r="C219" s="59" t="n">
         <f aca="false">(B219-0.5)/$B$242</f>
         <v>0.853125</v>
       </c>
-      <c r="D219" s="60" t="n">
+      <c r="D219" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C219)</f>
         <v>1.04993064688034</v>
       </c>
-      <c r="E219" s="58" t="n">
+      <c r="E219" s="60" t="n">
         <v>0.00343999999999998</v>
       </c>
-      <c r="F219" s="58" t="n">
+      <c r="F219" s="60" t="n">
         <v>0.000959999999999975</v>
       </c>
-      <c r="X219" s="58" t="n">
+      <c r="X219" s="60" t="n">
         <v>0.06816</v>
       </c>
-      <c r="Y219" s="58" t="n">
+      <c r="Y219" s="60" t="n">
         <v>0.00144</v>
       </c>
     </row>
@@ -19987,25 +19895,25 @@
         <f aca="false">$B219+1</f>
         <v>138</v>
       </c>
-      <c r="C220" s="60" t="n">
+      <c r="C220" s="59" t="n">
         <f aca="false">(B220-0.5)/$B$242</f>
         <v>0.859375</v>
       </c>
-      <c r="D220" s="60" t="n">
+      <c r="D220" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C220)</f>
         <v>1.07751556704028</v>
       </c>
-      <c r="E220" s="58" t="n">
+      <c r="E220" s="60" t="n">
         <v>0.00343999999999998</v>
       </c>
-      <c r="F220" s="58" t="n">
+      <c r="F220" s="60" t="n">
         <v>0.000959999999999975</v>
       </c>
-      <c r="X220" s="58" t="n">
-        <v>0.10136</v>
-      </c>
-      <c r="Y220" s="58" t="n">
-        <v>-0.000160000000000007</v>
+      <c r="X220" s="60" t="n">
+        <v>0.06816</v>
+      </c>
+      <c r="Y220" s="60" t="n">
+        <v>0.00144</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20013,25 +19921,25 @@
         <f aca="false">$B220+1</f>
         <v>139</v>
       </c>
-      <c r="C221" s="60" t="n">
+      <c r="C221" s="59" t="n">
         <f aca="false">(B221-0.5)/$B$242</f>
         <v>0.865625</v>
       </c>
-      <c r="D221" s="60" t="n">
+      <c r="D221" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C221)</f>
         <v>1.10594575260395</v>
       </c>
-      <c r="E221" s="58" t="n">
+      <c r="E221" s="60" t="n">
         <v>0.00343999999999998</v>
       </c>
-      <c r="F221" s="58" t="n">
+      <c r="F221" s="60" t="n">
         <v>0.00112000000000001</v>
       </c>
-      <c r="X221" s="58" t="n">
-        <v>0.10136</v>
-      </c>
-      <c r="Y221" s="58" t="n">
-        <v>-0.000160000000000007</v>
+      <c r="X221" s="60" t="n">
+        <v>0.10024</v>
+      </c>
+      <c r="Y221" s="60" t="n">
+        <v>0.000959999999999975</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20039,25 +19947,25 @@
         <f aca="false">$B221+1</f>
         <v>140</v>
       </c>
-      <c r="C222" s="60" t="n">
+      <c r="C222" s="59" t="n">
         <f aca="false">(B222-0.5)/$B$242</f>
         <v>0.871875</v>
       </c>
-      <c r="D222" s="60" t="n">
+      <c r="D222" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C222)</f>
         <v>1.13529914581985</v>
       </c>
-      <c r="E222" s="58" t="n">
+      <c r="E222" s="60" t="n">
         <v>0.00343999999999998</v>
       </c>
-      <c r="F222" s="58" t="n">
+      <c r="F222" s="60" t="n">
         <v>0.00104</v>
       </c>
-      <c r="X222" s="58" t="n">
-        <v>0.1012</v>
-      </c>
-      <c r="Y222" s="58" t="n">
-        <v>0</v>
+      <c r="X222" s="60" t="n">
+        <v>0.10024</v>
+      </c>
+      <c r="Y222" s="60" t="n">
+        <v>0.000959999999999975</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20065,25 +19973,25 @@
         <f aca="false">$B222+1</f>
         <v>141</v>
       </c>
-      <c r="C223" s="60" t="n">
+      <c r="C223" s="59" t="n">
         <f aca="false">(B223-0.5)/$B$242</f>
         <v>0.878125</v>
       </c>
-      <c r="D223" s="60" t="n">
+      <c r="D223" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C223)</f>
         <v>1.16566479312306</v>
       </c>
-      <c r="E223" s="58" t="n">
+      <c r="E223" s="60" t="n">
         <v>0.00343999999999998</v>
       </c>
-      <c r="F223" s="58" t="n">
+      <c r="F223" s="60" t="n">
         <v>0.00183999999999999</v>
       </c>
-      <c r="X223" s="58" t="n">
-        <v>0.1012</v>
-      </c>
-      <c r="Y223" s="58" t="n">
-        <v>0</v>
+      <c r="X223" s="60" t="n">
+        <v>0.09888</v>
+      </c>
+      <c r="Y223" s="60" t="n">
+        <v>0.00112000000000001</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20091,25 +19999,25 @@
         <f aca="false">$B223+1</f>
         <v>142</v>
       </c>
-      <c r="C224" s="60" t="n">
+      <c r="C224" s="59" t="n">
         <f aca="false">(B224-0.5)/$B$242</f>
         <v>0.884375</v>
       </c>
-      <c r="D224" s="60" t="n">
+      <c r="D224" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C224)</f>
         <v>1.19714510997237</v>
       </c>
-      <c r="E224" s="58" t="n">
+      <c r="E224" s="60" t="n">
         <v>0.00343999999999998</v>
       </c>
-      <c r="F224" s="58" t="n">
+      <c r="F224" s="60" t="n">
         <v>0.00192000000000001</v>
       </c>
-      <c r="X224" s="58" t="n">
-        <v>0.06816</v>
-      </c>
-      <c r="Y224" s="58" t="n">
-        <v>0.00144</v>
+      <c r="X224" s="60" t="n">
+        <v>0.09856</v>
+      </c>
+      <c r="Y224" s="60" t="n">
+        <v>0.00104</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20117,25 +20025,25 @@
         <f aca="false">$B224+1</f>
         <v>143</v>
       </c>
-      <c r="C225" s="60" t="n">
+      <c r="C225" s="59" t="n">
         <f aca="false">(B225-0.5)/$B$242</f>
         <v>0.890625</v>
       </c>
-      <c r="D225" s="60" t="n">
+      <c r="D225" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C225)</f>
         <v>1.22985875921659</v>
       </c>
-      <c r="E225" s="58" t="n">
+      <c r="E225" s="60" t="n">
         <v>0.00343999999999998</v>
       </c>
-      <c r="F225" s="58" t="n">
+      <c r="F225" s="60" t="n">
         <v>0.00192000000000001</v>
       </c>
-      <c r="X225" s="58" t="n">
-        <v>0.06816</v>
-      </c>
-      <c r="Y225" s="58" t="n">
-        <v>0.00144</v>
+      <c r="X225" s="60" t="n">
+        <v>0.06776</v>
+      </c>
+      <c r="Y225" s="60" t="n">
+        <v>0.00183999999999999</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20143,25 +20051,25 @@
         <f aca="false">$B225+1</f>
         <v>144</v>
       </c>
-      <c r="C226" s="60" t="n">
+      <c r="C226" s="59" t="n">
         <f aca="false">(B226-0.5)/$B$242</f>
         <v>0.896875</v>
       </c>
-      <c r="D226" s="60" t="n">
+      <c r="D226" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C226)</f>
         <v>1.26394435523673</v>
       </c>
-      <c r="E226" s="58" t="n">
+      <c r="E226" s="60" t="n">
         <v>0.00464000000000001</v>
       </c>
-      <c r="F226" s="58" t="n">
+      <c r="F226" s="60" t="n">
         <v>-0.000160000000000007</v>
       </c>
-      <c r="X226" s="58" t="n">
-        <v>0.06816</v>
-      </c>
-      <c r="Y226" s="58" t="n">
-        <v>0.00144</v>
+      <c r="X226" s="60" t="n">
+        <v>0.06768</v>
+      </c>
+      <c r="Y226" s="60" t="n">
+        <v>0.00192000000000001</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20169,25 +20077,25 @@
         <f aca="false">$B226+1</f>
         <v>145</v>
       </c>
-      <c r="C227" s="60" t="n">
+      <c r="C227" s="59" t="n">
         <f aca="false">(B227-0.5)/$B$242</f>
         <v>0.903125</v>
       </c>
-      <c r="D227" s="60" t="n">
+      <c r="D227" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C227)</f>
         <v>1.29956529745035</v>
       </c>
-      <c r="E227" s="58" t="n">
+      <c r="E227" s="60" t="n">
         <v>0.00464000000000001</v>
       </c>
-      <c r="F227" s="58" t="n">
+      <c r="F227" s="60" t="n">
         <v>-0.000160000000000007</v>
       </c>
-      <c r="X227" s="58" t="n">
-        <v>0.06816</v>
-      </c>
-      <c r="Y227" s="58" t="n">
-        <v>0.00144</v>
+      <c r="X227" s="60" t="n">
+        <v>0.06768</v>
+      </c>
+      <c r="Y227" s="60" t="n">
+        <v>0.00192000000000001</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20195,24 +20103,24 @@
         <f aca="false">$B227+1</f>
         <v>146</v>
       </c>
-      <c r="C228" s="60" t="n">
+      <c r="C228" s="59" t="n">
         <f aca="false">(B228-0.5)/$B$242</f>
         <v>0.909375</v>
       </c>
-      <c r="D228" s="60" t="n">
+      <c r="D228" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C228)</f>
         <v>1.3369161761535</v>
       </c>
-      <c r="E228" s="58" t="n">
+      <c r="E228" s="60" t="n">
         <v>0.00472000000000002</v>
       </c>
-      <c r="F228" s="58" t="n">
+      <c r="F228" s="60" t="n">
         <v>-8.00000000000106E-005</v>
       </c>
-      <c r="X228" s="62" t="n">
+      <c r="X228" s="60" t="n">
         <v>0.10136</v>
       </c>
-      <c r="Y228" s="62" t="n">
+      <c r="Y228" s="60" t="n">
         <v>-0.000160000000000007</v>
       </c>
     </row>
@@ -20221,19 +20129,25 @@
         <f aca="false">$B228+1</f>
         <v>147</v>
       </c>
-      <c r="C229" s="60" t="n">
+      <c r="C229" s="59" t="n">
         <f aca="false">(B229-0.5)/$B$242</f>
         <v>0.915625</v>
       </c>
-      <c r="D229" s="60" t="n">
+      <c r="D229" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C229)</f>
         <v>1.37623141165149</v>
       </c>
-      <c r="E229" s="58" t="n">
+      <c r="E229" s="60" t="n">
         <v>0.00504</v>
       </c>
-      <c r="F229" s="58" t="n">
+      <c r="F229" s="60" t="n">
         <v>-8.00000000000106E-005</v>
+      </c>
+      <c r="X229" s="60" t="n">
+        <v>0.10136</v>
+      </c>
+      <c r="Y229" s="60" t="n">
+        <v>-0.000160000000000007</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20241,19 +20155,25 @@
         <f aca="false">$B229+1</f>
         <v>148</v>
       </c>
-      <c r="C230" s="60" t="n">
+      <c r="C230" s="59" t="n">
         <f aca="false">(B230-0.5)/$B$242</f>
         <v>0.921875</v>
       </c>
-      <c r="D230" s="60" t="n">
+      <c r="D230" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C230)</f>
         <v>1.41779713799627</v>
       </c>
-      <c r="E230" s="58" t="n">
+      <c r="E230" s="60" t="n">
         <v>0.00512</v>
       </c>
-      <c r="F230" s="58" t="n">
+      <c r="F230" s="60" t="n">
         <v>0.00144</v>
+      </c>
+      <c r="X230" s="60" t="n">
+        <v>0.10128</v>
+      </c>
+      <c r="Y230" s="60" t="n">
+        <v>-8.00000000000106E-005</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20261,19 +20181,25 @@
         <f aca="false">$B230+1</f>
         <v>149</v>
       </c>
-      <c r="C231" s="60" t="n">
+      <c r="C231" s="59" t="n">
         <f aca="false">(B231-0.5)/$B$242</f>
         <v>0.928125</v>
       </c>
-      <c r="D231" s="60" t="n">
+      <c r="D231" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C231)</f>
         <v>1.46196792364549</v>
       </c>
-      <c r="E231" s="58" t="n">
+      <c r="E231" s="60" t="n">
         <v>0.00512</v>
       </c>
-      <c r="F231" s="58" t="n">
+      <c r="F231" s="60" t="n">
         <v>0.00144</v>
+      </c>
+      <c r="X231" s="60" t="n">
+        <v>0.10128</v>
+      </c>
+      <c r="Y231" s="60" t="n">
+        <v>-8.00000000000106E-005</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20281,18 +20207,24 @@
         <f aca="false">$B231+1</f>
         <v>150</v>
       </c>
-      <c r="C232" s="60" t="n">
+      <c r="C232" s="59" t="n">
         <f aca="false">(B232-0.5)/$B$242</f>
         <v>0.934375</v>
       </c>
-      <c r="D232" s="60" t="n">
+      <c r="D232" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C232)</f>
         <v>1.50919091978405</v>
       </c>
-      <c r="E232" s="58" t="n">
+      <c r="E232" s="60" t="n">
         <v>0.00520000000000001</v>
       </c>
-      <c r="F232" s="58" t="n">
+      <c r="F232" s="60" t="n">
+        <v>0.00144</v>
+      </c>
+      <c r="X232" s="60" t="n">
+        <v>0.06816</v>
+      </c>
+      <c r="Y232" s="60" t="n">
         <v>0.00144</v>
       </c>
     </row>
@@ -20301,18 +20233,24 @@
         <f aca="false">$B232+1</f>
         <v>151</v>
       </c>
-      <c r="C233" s="60" t="n">
+      <c r="C233" s="59" t="n">
         <f aca="false">(B233-0.5)/$B$242</f>
         <v>0.940625</v>
       </c>
-      <c r="D233" s="60" t="n">
+      <c r="D233" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C233)</f>
         <v>1.56004181507316</v>
       </c>
-      <c r="E233" s="58" t="n">
+      <c r="E233" s="60" t="n">
         <v>0.00520000000000001</v>
       </c>
-      <c r="F233" s="58" t="n">
+      <c r="F233" s="60" t="n">
+        <v>0.00144</v>
+      </c>
+      <c r="X233" s="60" t="n">
+        <v>0.06816</v>
+      </c>
+      <c r="Y233" s="60" t="n">
         <v>0.00144</v>
       </c>
     </row>
@@ -20321,19 +20259,25 @@
         <f aca="false">$B233+1</f>
         <v>152</v>
       </c>
-      <c r="C234" s="60" t="n">
+      <c r="C234" s="59" t="n">
         <f aca="false">(B234-0.5)/$B$242</f>
         <v>0.946875</v>
       </c>
-      <c r="D234" s="60" t="n">
+      <c r="D234" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C234)</f>
         <v>1.61528033615581</v>
       </c>
-      <c r="E234" s="58" t="n">
+      <c r="E234" s="60" t="n">
         <v>0.00544</v>
       </c>
-      <c r="F234" s="58" t="n">
+      <c r="F234" s="60" t="n">
         <v>-0.000160000000000007</v>
+      </c>
+      <c r="X234" s="60" t="n">
+        <v>0.06816</v>
+      </c>
+      <c r="Y234" s="60" t="n">
+        <v>0.00144</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20341,19 +20285,25 @@
         <f aca="false">$B234+1</f>
         <v>153</v>
       </c>
-      <c r="C235" s="60" t="n">
+      <c r="C235" s="59" t="n">
         <f aca="false">(B235-0.5)/$B$242</f>
         <v>0.953125</v>
       </c>
-      <c r="D235" s="60" t="n">
+      <c r="D235" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C235)</f>
         <v>1.67593972277344</v>
       </c>
-      <c r="E235" s="58" t="n">
+      <c r="E235" s="60" t="n">
         <v>0.00544</v>
       </c>
-      <c r="F235" s="58" t="n">
+      <c r="F235" s="60" t="n">
         <v>-0.000160000000000007</v>
+      </c>
+      <c r="X235" s="60" t="n">
+        <v>0.06816</v>
+      </c>
+      <c r="Y235" s="60" t="n">
+        <v>0.00144</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20361,19 +20311,25 @@
         <f aca="false">$B235+1</f>
         <v>154</v>
       </c>
-      <c r="C236" s="60" t="n">
+      <c r="C236" s="59" t="n">
         <f aca="false">(B236-0.5)/$B$242</f>
         <v>0.959375</v>
       </c>
-      <c r="D236" s="60" t="n">
+      <c r="D236" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C236)</f>
         <v>1.74347888187728</v>
       </c>
-      <c r="E236" s="58" t="n">
+      <c r="E236" s="60" t="n">
         <v>0.00544</v>
       </c>
-      <c r="F236" s="58" t="n">
+      <c r="F236" s="60" t="n">
         <v>0</v>
+      </c>
+      <c r="X236" s="60" t="n">
+        <v>0.10136</v>
+      </c>
+      <c r="Y236" s="60" t="n">
+        <v>-0.000160000000000007</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20381,19 +20337,25 @@
         <f aca="false">$B236+1</f>
         <v>155</v>
       </c>
-      <c r="C237" s="60" t="n">
+      <c r="C237" s="59" t="n">
         <f aca="false">(B237-0.5)/$B$242</f>
         <v>0.965625</v>
       </c>
-      <c r="D237" s="60" t="n">
+      <c r="D237" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C237)</f>
         <v>1.82005913441812</v>
       </c>
-      <c r="E237" s="58" t="n">
+      <c r="E237" s="60" t="n">
         <v>0.00544</v>
       </c>
-      <c r="F237" s="58" t="n">
+      <c r="F237" s="60" t="n">
         <v>0</v>
+      </c>
+      <c r="X237" s="60" t="n">
+        <v>0.10136</v>
+      </c>
+      <c r="Y237" s="60" t="n">
+        <v>-0.000160000000000007</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20401,19 +20363,25 @@
         <f aca="false">$B237+1</f>
         <v>156</v>
       </c>
-      <c r="C238" s="60" t="n">
+      <c r="C238" s="59" t="n">
         <f aca="false">(B238-0.5)/$B$242</f>
         <v>0.971875</v>
       </c>
-      <c r="D238" s="60" t="n">
+      <c r="D238" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C238)</f>
         <v>1.90909374120198</v>
       </c>
-      <c r="E238" s="58" t="n">
+      <c r="E238" s="60" t="n">
         <v>0.00544</v>
       </c>
-      <c r="F238" s="58" t="n">
+      <c r="F238" s="60" t="n">
         <v>0.00144</v>
+      </c>
+      <c r="X238" s="60" t="n">
+        <v>0.1012</v>
+      </c>
+      <c r="Y238" s="60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20421,19 +20389,25 @@
         <f aca="false">$B238+1</f>
         <v>157</v>
       </c>
-      <c r="C239" s="60" t="n">
+      <c r="C239" s="59" t="n">
         <f aca="false">(B239-0.5)/$B$242</f>
         <v>0.978125</v>
       </c>
-      <c r="D239" s="60" t="n">
+      <c r="D239" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C239)</f>
         <v>2.01647815742854</v>
       </c>
-      <c r="E239" s="58" t="n">
+      <c r="E239" s="60" t="n">
         <v>0.00544</v>
       </c>
-      <c r="F239" s="58" t="n">
+      <c r="F239" s="60" t="n">
         <v>0.00144</v>
+      </c>
+      <c r="X239" s="60" t="n">
+        <v>0.1012</v>
+      </c>
+      <c r="Y239" s="60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20441,18 +20415,24 @@
         <f aca="false">$B239+1</f>
         <v>158</v>
       </c>
-      <c r="C240" s="60" t="n">
+      <c r="C240" s="59" t="n">
         <f aca="false">(B240-0.5)/$B$242</f>
         <v>0.984375</v>
       </c>
-      <c r="D240" s="60" t="n">
+      <c r="D240" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C240)</f>
         <v>2.15387469406146</v>
       </c>
-      <c r="E240" s="58" t="n">
+      <c r="E240" s="60" t="n">
         <v>0.00544</v>
       </c>
-      <c r="F240" s="58" t="n">
+      <c r="F240" s="60" t="n">
+        <v>0.00144</v>
+      </c>
+      <c r="X240" s="60" t="n">
+        <v>0.06816</v>
+      </c>
+      <c r="Y240" s="60" t="n">
         <v>0.00144</v>
       </c>
     </row>
@@ -20461,38 +20441,66 @@
         <f aca="false">$B240+1</f>
         <v>159</v>
       </c>
-      <c r="C241" s="60" t="n">
+      <c r="C241" s="59" t="n">
         <f aca="false">(B241-0.5)/$B$242</f>
         <v>0.990625</v>
       </c>
-      <c r="D241" s="60" t="n">
+      <c r="D241" s="59" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C241)</f>
         <v>2.35046442310908</v>
       </c>
-      <c r="E241" s="58" t="n">
+      <c r="E241" s="60" t="n">
         <v>0.00655999999999998</v>
       </c>
-      <c r="F241" s="58" t="n">
+      <c r="F241" s="60" t="n">
         <v>0.00144</v>
       </c>
+      <c r="X241" s="60" t="n">
+        <v>0.06816</v>
+      </c>
+      <c r="Y241" s="60" t="n">
+        <v>0.00144</v>
+      </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B242" s="63" t="n">
+      <c r="B242" s="62" t="n">
         <f aca="false">$B241+1</f>
         <v>160</v>
       </c>
-      <c r="C242" s="64" t="n">
+      <c r="C242" s="63" t="n">
         <f aca="false">(B242-0.5)/$B$242</f>
         <v>0.996875</v>
       </c>
-      <c r="D242" s="64" t="n">
+      <c r="D242" s="63" t="n">
         <f aca="false">_xlfn.NORM.S.INV(C242)</f>
         <v>2.73436878653318</v>
       </c>
-      <c r="E242" s="62" t="n">
+      <c r="E242" s="64" t="n">
         <v>0.00655999999999998</v>
       </c>
-      <c r="F242" s="62" t="n">
+      <c r="F242" s="64" t="n">
+        <v>-0.000160000000000007</v>
+      </c>
+      <c r="X242" s="60" t="n">
+        <v>0.06816</v>
+      </c>
+      <c r="Y242" s="60" t="n">
+        <v>0.00144</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X243" s="60" t="n">
+        <v>0.06816</v>
+      </c>
+      <c r="Y243" s="60" t="n">
+        <v>0.00144</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X244" s="64" t="n">
+        <v>0.10136</v>
+      </c>
+      <c r="Y244" s="64" t="n">
         <v>-0.000160000000000007</v>
       </c>
     </row>
